--- a/Requirments/CRS_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/CRS_Travel_Advisor_Web_Application.xlsx
@@ -5,22 +5,38 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B732BD-8A71-4C4F-AE82-82EE65FDA211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7255F514-4C61-4E10-B71F-2947FEA20AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>CRS ID</t>
   </si>
@@ -37,147 +53,226 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>SRS-ID</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>TC-ID</t>
+  </si>
+  <si>
+    <t>CRS-Reg-001</t>
+  </si>
+  <si>
     <t>Registration Form Requirements</t>
   </si>
   <si>
+    <t>The form should only include: username, email, password, confirm password, and register button. No phone number or other fields should be included.</t>
+  </si>
+  <si>
+    <t>SIQ-Reg-01</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>SRS-Reg-01</t>
+  </si>
+  <si>
+    <t>SRS-Reg-02</t>
+  </si>
+  <si>
+    <t>SRS-Reg-03</t>
+  </si>
+  <si>
+    <t>SRS-Reg-04</t>
+  </si>
+  <si>
+    <t>SRS-Reg-05</t>
+  </si>
+  <si>
+    <t>SRS-Reg-06</t>
+  </si>
+  <si>
+    <t>SRS-Reg-07</t>
+  </si>
+  <si>
+    <t>CRS-Reg-002</t>
+  </si>
+  <si>
     <t>Username Requirements</t>
   </si>
   <si>
+    <t>No special characters are required in the username. It should only contain letters.</t>
+  </si>
+  <si>
+    <t>SIQ-Reg-02</t>
+  </si>
+  <si>
+    <t>CRS-Reg-003</t>
+  </si>
+  <si>
     <t>Password Requirements</t>
   </si>
   <si>
+    <t>The password must be at least 8 characters long and include at least one special character for security purposes.</t>
+  </si>
+  <si>
+    <t>SIQ-Reg-03</t>
+  </si>
+  <si>
+    <t>CRS-Login-001</t>
+  </si>
+  <si>
     <t>User Login Functionality</t>
   </si>
   <si>
+    <t>Users should be able to log in using their email and password.</t>
+  </si>
+  <si>
+    <t>SIQ-Login-01</t>
+  </si>
+  <si>
+    <t>CRS-Admin-001</t>
+  </si>
+  <si>
     <t>Admin Permissions</t>
   </si>
   <si>
+    <t>Admin should only have the ability to add and delete users, but not to update users and comments.</t>
+  </si>
+  <si>
+    <t>SIQ-Admin-01</t>
+  </si>
+  <si>
+    <t>CRS-Rate-001</t>
+  </si>
+  <si>
     <t>Rating System</t>
   </si>
   <si>
+    <t>The rating system should use a 5-star scale with a text box for user comments and should be visible in the user's history.</t>
+  </si>
+  <si>
+    <t>SIQ-Rate-01</t>
+  </si>
+  <si>
+    <t>CRS-Booking-001</t>
+  </si>
+  <si>
     <t>Booking Data Integration</t>
   </si>
   <si>
+    <t>Booking data should be sent to a third-party service for flight availability checks.</t>
+  </si>
+  <si>
+    <t>SIQ-Booking-01</t>
+  </si>
+  <si>
+    <t>CRS-Gallery-001</t>
+  </si>
+  <si>
     <t>Photo Gallery Display</t>
   </si>
   <si>
+    <t>The gallery should display the top 3 travel destinations.</t>
+  </si>
+  <si>
+    <t>SIQ-Gallery-01</t>
+  </si>
+  <si>
+    <t>CRS-User-001</t>
+  </si>
+  <si>
     <t>User Capabilities</t>
   </si>
   <si>
-    <t>The form should only include: username, email, password, confirm password, and register button. No phone number or other fields should be included.</t>
-  </si>
-  <si>
-    <t>No special characters are required in the username. It should only contain letters.</t>
-  </si>
-  <si>
-    <t>The password must be at least 8 characters long and include at least one special character for security purposes.</t>
-  </si>
-  <si>
-    <t>Users should be able to log in using their email and password.</t>
-  </si>
-  <si>
-    <t>Admin should only have the ability to add and delete users, but not to update users and comments.</t>
-  </si>
-  <si>
-    <t>The rating system should use a 5-star scale with a text box for user comments and should be visible in the user's history.</t>
-  </si>
-  <si>
-    <t>Booking data should be sent to a third-party service for flight availability checks.</t>
-  </si>
-  <si>
-    <t>The gallery should display the top 3 travel destinations.</t>
-  </si>
-  <si>
     <t>Users should have the ability to register, log in, make bookings, cancel bookings, and leave ratings for their experiences.</t>
   </si>
   <si>
-    <t>SIQ-Reg-01</t>
-  </si>
-  <si>
-    <t>SIQ-Reg-02</t>
-  </si>
-  <si>
-    <t>SIQ-Reg-03</t>
-  </si>
-  <si>
-    <t>SIQ-Login-01</t>
-  </si>
-  <si>
-    <t>SIQ-Admin-01</t>
-  </si>
-  <si>
-    <t>SIQ-Rate-01</t>
-  </si>
-  <si>
-    <t>SIQ-Booking-01</t>
-  </si>
-  <si>
-    <t>SIQ-Gallery-01</t>
-  </si>
-  <si>
     <t>SIQ-User-01</t>
   </si>
   <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>CRS-Reg-001</t>
-  </si>
-  <si>
-    <t>CRS-Reg-002</t>
-  </si>
-  <si>
-    <t>CRS-Reg-003</t>
-  </si>
-  <si>
-    <t>CRS-Login-001</t>
-  </si>
-  <si>
-    <t>CRS-Admin-001</t>
-  </si>
-  <si>
-    <t>CRS-Rate-001</t>
-  </si>
-  <si>
-    <t>CRS-Booking-001</t>
-  </si>
-  <si>
-    <t>CRS-Gallery-001</t>
-  </si>
-  <si>
-    <t>CRS-User-001</t>
+    <t>CRS-User-002</t>
+  </si>
+  <si>
+    <t>Unique User IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Each registered user must be assigned a unique identifier for system tracking.</t>
+  </si>
+  <si>
+    <t>CRS-Platform-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Platform Type</t>
   </si>
   <si>
     <t>The application must be accessible via PC or Web Browser only.</t>
   </si>
   <si>
-    <t xml:space="preserve">	Platform Type</t>
-  </si>
-  <si>
-    <t>Unique User IDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Each registered user must be assigned a unique identifier for system tracking.</t>
-  </si>
-  <si>
-    <t>CRS-Platform-001</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>CRS-User-002</t>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>SRS-Reg-08</t>
+  </si>
+  <si>
+    <t>SRS-Reg-09</t>
+  </si>
+  <si>
+    <t>The registration form shall include only the following fields:
+-Username (text input)
+-Email (email input)
+-Password (password input)
+-Confirm Password (password input)
+-Register button (submit action)</t>
+  </si>
+  <si>
+    <t>Phone number or any additional fields shall not be present</t>
+  </si>
+  <si>
+    <t>The system shall validate that the email field contains a valid email address pattern
+ (e.g., example@domain.com).</t>
+  </si>
+  <si>
+    <t>Each input field shall include a placeholder text indicating what information is expected 
+(e.g., "Enter your email", "Choose a password").</t>
+  </si>
+  <si>
+    <t>The username shall only contain letters (a–z, A–Z), with no special characters or number</t>
+  </si>
+  <si>
+    <t>The password must meet the following criteria:
+-Minimum of 8 characters
+-Include at least one special character (e.g., !, @, #) for security purposes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All fields shall be mandatory. If any required field is left blank, the system shall display 
+a generic error message, "This field is required." </t>
+  </si>
+  <si>
+    <t>The system shall display an error message if the username contains invalid characters.
+"Invalid username".</t>
+  </si>
+  <si>
+    <t>The system shall display an error message if the user enters an invalid password.
+"Invalid password".</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -185,12 +280,18 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +304,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -238,17 +345,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,22 +727,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:S224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="125.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="125.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.69921875" customWidth="1"/>
+    <col min="7" max="7" width="9.09765625"/>
+    <col min="8" max="8" width="14.59765625" customWidth="1"/>
+    <col min="17" max="17" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,193 +762,1601 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:19" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+    </row>
+    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+    </row>
+    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+    </row>
+    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+    </row>
+    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+    </row>
+    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+    </row>
+    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+    </row>
+    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+    </row>
+    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+    </row>
+    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+    </row>
+    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+    </row>
+    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+    </row>
+    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+    </row>
+    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+    </row>
+    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+    </row>
+    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+    </row>
+    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+    </row>
+    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+    </row>
+    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+    </row>
+    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+    </row>
+    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+    </row>
+    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+    </row>
+    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+    </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+    </row>
+    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+    </row>
+    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+    </row>
+    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+    </row>
+    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+    </row>
+    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+    </row>
+    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+    </row>
+    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+    </row>
+    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+    </row>
+    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+    </row>
+    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+    </row>
+    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+    </row>
+    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+    </row>
+    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+    </row>
+    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+    </row>
+    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+    </row>
+    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+    </row>
+    <row r="131" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+    </row>
+    <row r="132" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+    </row>
+    <row r="133" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+    </row>
+    <row r="134" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+    </row>
+    <row r="135" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+    </row>
+    <row r="136" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+    </row>
+    <row r="137" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+    </row>
+    <row r="138" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+    </row>
+    <row r="139" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+    </row>
+    <row r="140" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+    </row>
+    <row r="141" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+    </row>
+    <row r="142" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+    </row>
+    <row r="143" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+    </row>
+    <row r="144" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+    </row>
+    <row r="145" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+    </row>
+    <row r="146" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+    </row>
+    <row r="148" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+    </row>
+    <row r="149" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+    </row>
+    <row r="150" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+    </row>
+    <row r="151" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+    </row>
+    <row r="152" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+    </row>
+    <row r="153" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+    </row>
+    <row r="154" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+    </row>
+    <row r="155" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+    </row>
+    <row r="156" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+    </row>
+    <row r="157" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+    </row>
+    <row r="158" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+    </row>
+    <row r="159" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+    </row>
+    <row r="160" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+    </row>
+    <row r="161" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+    </row>
+    <row r="162" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+    </row>
+    <row r="163" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+    </row>
+    <row r="164" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+    </row>
+    <row r="165" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+    </row>
+    <row r="166" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+    </row>
+    <row r="167" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+    </row>
+    <row r="168" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+    </row>
+    <row r="169" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+    </row>
+    <row r="170" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+    </row>
+    <row r="171" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+    </row>
+    <row r="172" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+    </row>
+    <row r="173" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+    </row>
+    <row r="174" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+    </row>
+    <row r="175" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+    </row>
+    <row r="176" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+    </row>
+    <row r="177" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+    </row>
+    <row r="178" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+    </row>
+    <row r="179" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+    </row>
+    <row r="180" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+    </row>
+    <row r="181" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+    </row>
+    <row r="182" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+    </row>
+    <row r="183" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+    </row>
+    <row r="184" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+    </row>
+    <row r="185" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+    </row>
+    <row r="186" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+    </row>
+    <row r="187" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+    </row>
+    <row r="188" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+    </row>
+    <row r="189" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+    </row>
+    <row r="190" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+    </row>
+    <row r="191" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+    </row>
+    <row r="192" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+    </row>
+    <row r="193" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+    </row>
+    <row r="194" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+    </row>
+    <row r="195" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+    </row>
+    <row r="196" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+    </row>
+    <row r="197" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+    </row>
+    <row r="198" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+    </row>
+    <row r="199" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+    </row>
+    <row r="200" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+    </row>
+    <row r="201" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+    </row>
+    <row r="202" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+    </row>
+    <row r="203" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+    </row>
+    <row r="204" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+    </row>
+    <row r="205" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+    </row>
+    <row r="206" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+    </row>
+    <row r="207" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+    </row>
+    <row r="208" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+    </row>
+    <row r="209" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+    </row>
+    <row r="210" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+    </row>
+    <row r="211" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+    </row>
+    <row r="212" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+    </row>
+    <row r="213" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+    </row>
+    <row r="214" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+    </row>
+    <row r="215" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+    </row>
+    <row r="216" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+    </row>
+    <row r="217" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+    </row>
+    <row r="218" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+    </row>
+    <row r="219" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+    </row>
+    <row r="220" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+    </row>
+    <row r="221" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+    </row>
+    <row r="222" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+    </row>
+    <row r="223" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+    </row>
+    <row r="224" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="278">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="I9:Q9"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="I6:Q6"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="G215:H215"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="G214:H214"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G193:H193"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10" xr:uid="{6D1BD59D-2E43-4C32-859B-2273CF1678C7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E14:E17 E7 E9 E11:E12" xr:uid="{6D1BD59D-2E43-4C32-859B-2273CF1678C7}">
       <formula1>"Approved , Not Approved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/CRS_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/CRS_Travel_Advisor_Web_Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7255F514-4C61-4E10-B71F-2947FEA20AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE9BB9A-2ED1-491F-BDF2-E3B8339049A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>CRS ID</t>
   </si>
@@ -128,25 +128,7 @@
     <t>CRS-Login-001</t>
   </si>
   <si>
-    <t>User Login Functionality</t>
-  </si>
-  <si>
-    <t>Users should be able to log in using their email and password.</t>
-  </si>
-  <si>
     <t>SIQ-Login-01</t>
-  </si>
-  <si>
-    <t>CRS-Admin-001</t>
-  </si>
-  <si>
-    <t>Admin Permissions</t>
-  </si>
-  <si>
-    <t>Admin should only have the ability to add and delete users, but not to update users and comments.</t>
-  </si>
-  <si>
-    <t>SIQ-Admin-01</t>
   </si>
   <si>
     <t>CRS-Rate-001</t>
@@ -262,6 +244,85 @@
   <si>
     <t>The system shall display an error message if the user enters an invalid password.
 "Invalid password".</t>
+  </si>
+  <si>
+    <t>The system shall allow users to enter their email and password in a login form.</t>
+  </si>
+  <si>
+    <t>CRS-Login-002</t>
+  </si>
+  <si>
+    <t>CRS-Login-003</t>
+  </si>
+  <si>
+    <t>The system shall limit login attempts to prevent brute-force attacks by locking the account after 4 consecutive failed attempts. The account shall remain locked for 10 minutes, after which it will automatically unlock and allow up to 3 additional login attempts before locking again.</t>
+  </si>
+  <si>
+    <t>SRS-Login-01</t>
+  </si>
+  <si>
+    <t>SRS-Login-02</t>
+  </si>
+  <si>
+    <t>SRS-Login-03</t>
+  </si>
+  <si>
+    <t>SRS-Login-04</t>
+  </si>
+  <si>
+    <t>SRS-Login-05</t>
+  </si>
+  <si>
+    <t>SRS-Login-06</t>
+  </si>
+  <si>
+    <t>The email input shall be mandatory. If left blank, the system shall display an error message: 
+"This field is required."</t>
+  </si>
+  <si>
+    <t>The system shall validate that the email field contains a valid email pattern 
+(e.g., example@domain.com).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	The system shall display an error message for invalid email input: "Invalid email address."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	The system shall include placeholder text in the email field: "Enter your email"</t>
+  </si>
+  <si>
+    <t>SRS-Login-07</t>
+  </si>
+  <si>
+    <t>SRS-Login-08</t>
+  </si>
+  <si>
+    <t>SRS-Login-09</t>
+  </si>
+  <si>
+    <t>SRS-Login-10</t>
+  </si>
+  <si>
+    <t>SRS-Login-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall redirect the user to their home page upon succesful login. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The system shall offer a "Show/Hide Password" toggle for usability.</t>
+  </si>
+  <si>
+    <t>SRS-Login-12</t>
+  </si>
+  <si>
+    <t>The email field shall not start with whitespace characters.</t>
+  </si>
+  <si>
+    <t>The password input shall be mandatory. If left blank, the system shall display an error message: 
+"This field is required."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system shall display a descriptive error message if the  password is incorrect , the system shall display an error message  :"incorrect password"
+</t>
   </si>
 </sst>
 </file>
@@ -272,7 +333,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -280,18 +341,18 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +368,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -384,8 +451,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,20 +460,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -414,14 +490,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,25 +825,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S224"/>
+  <dimension ref="A1:AE233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="125.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.69921875" customWidth="1"/>
-    <col min="7" max="7" width="9.09765625"/>
-    <col min="8" max="8" width="14.59765625" customWidth="1"/>
-    <col min="17" max="17" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="125.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.109375"/>
+    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,162 +862,162 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="6" t="s">
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="9"/>
-    </row>
-    <row r="2" spans="1:19" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="S1" s="12"/>
+    </row>
+    <row r="2" spans="1:19" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
     </row>
-    <row r="4" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
     </row>
-    <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:19" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
     </row>
-    <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -935,53 +1033,53 @@
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -998,1100 +1096,1602 @@
         <v>13</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
+      <c r="G9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="G10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="23"/>
+      <c r="I12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="G13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D24" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B25" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-    </row>
-    <row r="15" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-    </row>
-    <row r="16" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+    </row>
+    <row r="26" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+    </row>
+    <row r="27" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+    </row>
+    <row r="28" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+    </row>
+    <row r="44" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+    </row>
+    <row r="46" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+    </row>
+    <row r="47" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:31" x14ac:dyDescent="0.3">
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
     </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
     </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
     </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
     </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
     </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
     </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
     </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
     </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
     </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
     </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
     </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
     </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
     </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
     </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
     </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
     </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
     </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
     </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
     </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
     </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
     </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
     </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
     </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
     </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
     </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
     </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
     </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
     </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
     </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
     </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
     </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
     </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
     </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
     </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
     </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
     </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
     </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
     </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
     </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
     </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
     </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
     </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
     </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
     </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
     </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
     </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
     </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
     </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
     </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
     </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
     </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
     </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
     </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
     </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
     </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
     </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
     </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
     </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
     </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
     </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
     </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
     </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
     </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
     </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
     </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
     </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
     </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
     </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
     </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
     </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
     </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
     </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
     </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
     </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
     </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
     </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
     </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
     </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
     </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
     </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
     </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
     </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
     </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
     </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
     </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
     </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
     </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
     </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
     </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
     </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
     </row>
-    <row r="206" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
     </row>
-    <row r="207" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
     </row>
-    <row r="208" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
     </row>
-    <row r="209" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
     </row>
-    <row r="210" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
     </row>
-    <row r="211" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
     </row>
-    <row r="212" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
     </row>
-    <row r="213" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
     </row>
-    <row r="214" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
     </row>
-    <row r="215" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
     </row>
-    <row r="216" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
     </row>
-    <row r="217" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
     </row>
-    <row r="218" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
     </row>
-    <row r="219" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
     </row>
-    <row r="220" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
     </row>
-    <row r="221" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
     </row>
-    <row r="222" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
     </row>
-    <row r="223" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
     </row>
-    <row r="224" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
     </row>
+    <row r="225" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+    </row>
+    <row r="226" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+    </row>
+    <row r="227" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+    </row>
+    <row r="228" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+    </row>
+    <row r="229" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+    </row>
+    <row r="230" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+    </row>
+    <row r="231" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+    </row>
+    <row r="232" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+    </row>
+    <row r="233" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="278">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="I9:Q9"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="I12:Q12"/>
+  <mergeCells count="301">
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="C11:C22"/>
+    <mergeCell ref="D11:D22"/>
+    <mergeCell ref="E11:E22"/>
+    <mergeCell ref="F11:F22"/>
+    <mergeCell ref="A11:A21"/>
+    <mergeCell ref="B11:B22"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G230:H230"/>
+    <mergeCell ref="G231:H231"/>
+    <mergeCell ref="G232:H232"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="G214:H214"/>
+    <mergeCell ref="G215:H215"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G233:H233"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="G225:H225"/>
+    <mergeCell ref="G226:H226"/>
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="I13:Q13"/>
     <mergeCell ref="I14:Q14"/>
     <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="I25:Q25"/>
+    <mergeCell ref="I26:Q26"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="I6:Q6"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -2107,256 +2707,31 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="I3:Q3"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="I5:Q5"/>
-    <mergeCell ref="I6:Q6"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="I9:Q9"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="W46:AE46"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="I21:Q21"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="G215:H215"/>
-    <mergeCell ref="G216:H216"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G220:H220"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="G210:H210"/>
-    <mergeCell ref="G211:H211"/>
-    <mergeCell ref="G212:H212"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="G214:H214"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G193:H193"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E14:E17 E7 E9 E11:E12" xr:uid="{6D1BD59D-2E43-4C32-859B-2273CF1678C7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E23:E26 E7 E9 E11" xr:uid="{6D1BD59D-2E43-4C32-859B-2273CF1678C7}">
       <formula1>"Approved , Not Approved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/CRS_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/CRS_Travel_Advisor_Web_Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE9BB9A-2ED1-491F-BDF2-E3B8339049A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66043B33-3CE9-4109-9D2C-615EE9381F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>CRS ID</t>
   </si>
@@ -323,6 +323,36 @@
   <si>
     <t xml:space="preserve">The system shall display a descriptive error message if the  password is incorrect , the system shall display an error message  :"incorrect password"
 </t>
+  </si>
+  <si>
+    <t>SRS-Gallery-01</t>
+  </si>
+  <si>
+    <t>SRS-Gallery-02</t>
+  </si>
+  <si>
+    <t>SRS-Gallery-03</t>
+  </si>
+  <si>
+    <t>SRS-Gallery-04</t>
+  </si>
+  <si>
+    <t>The gallery shall display images of the top 3 travel destinations.</t>
+  </si>
+  <si>
+    <t>The system shall display a photo gallery on the homepage.</t>
+  </si>
+  <si>
+    <t>Each destination image shall include a label with the destination name.</t>
+  </si>
+  <si>
+    <t>The system shall ensure the gallery is responsive to different screen sizes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Each gallery image shall include alt text for accessibility.</t>
+  </si>
+  <si>
+    <t>SRS-Gallery-05</t>
   </si>
 </sst>
 </file>
@@ -352,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +404,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,19 +491,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,14 +521,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -490,37 +548,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE233"/>
+  <dimension ref="A1:AE237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F22"/>
+    <sheetView tabSelected="1" topLeftCell="F18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,589 +899,589 @@
       <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="13"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="12"/>
       <c r="R1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="12"/>
+      <c r="S1" s="20"/>
     </row>
     <row r="2" spans="1:19" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="9" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="10" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="14" t="s">
+      <c r="H4" s="14"/>
+      <c r="I4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="10" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="10" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="7" t="s">
+      <c r="H7" s="13"/>
+      <c r="I7" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
     </row>
     <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="10" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="7" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="23" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="14" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="22" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="19" t="s">
+      <c r="H13" s="6"/>
+      <c r="I13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="22" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="20" t="s">
+      <c r="H14" s="6"/>
+      <c r="I14" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="22" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="18" t="s">
+      <c r="H15" s="6"/>
+      <c r="I15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="22" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="18" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="22" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="18" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="23" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="14" t="s">
+      <c r="H18" s="6"/>
+      <c r="I18" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="23" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="6" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="23" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="15" t="s">
+      <c r="H20" s="6"/>
+      <c r="I20" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="23" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="14" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="22" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="25" t="s">
+      <c r="H22" s="6"/>
+      <c r="I22" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1465,10 +1499,10 @@
       <c r="E23" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1486,947 +1520,1347 @@
       <c r="E24" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
     </row>
     <row r="26" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+    </row>
+    <row r="30" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>43</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>44</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>45</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D30" t="s">
         <v>46</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E30" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-    </row>
-    <row r="27" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>48</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C31" t="s">
         <v>49</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E31" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-    </row>
-    <row r="28" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C32" t="s">
         <v>52</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E32" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-    </row>
-    <row r="44" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-    </row>
-    <row r="45" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-    </row>
-    <row r="46" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="15"/>
-      <c r="AA46" s="15"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="15"/>
-      <c r="AE46" s="15"/>
-    </row>
-    <row r="47" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="7:31" x14ac:dyDescent="0.3">
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-    </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-    </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-    </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+    </row>
+    <row r="48" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+    </row>
+    <row r="49" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+    </row>
+    <row r="50" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="23"/>
+      <c r="Y50" s="23"/>
+      <c r="Z50" s="23"/>
+      <c r="AA50" s="23"/>
+      <c r="AB50" s="23"/>
+      <c r="AC50" s="23"/>
+      <c r="AD50" s="23"/>
+      <c r="AE50" s="23"/>
+    </row>
+    <row r="51" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
     </row>
     <row r="69" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
     </row>
     <row r="70" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
     </row>
     <row r="71" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
     </row>
     <row r="73" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
     </row>
     <row r="75" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
     </row>
     <row r="77" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
     </row>
     <row r="79" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
     </row>
     <row r="81" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
     </row>
     <row r="82" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
     </row>
     <row r="83" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
     </row>
     <row r="85" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
     </row>
     <row r="86" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
     </row>
     <row r="87" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
     </row>
     <row r="89" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
     </row>
     <row r="90" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
     </row>
     <row r="91" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
     </row>
     <row r="93" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
     </row>
     <row r="94" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
     </row>
     <row r="95" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
     </row>
     <row r="96" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
     </row>
     <row r="97" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
     </row>
     <row r="98" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
     </row>
     <row r="99" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
     </row>
     <row r="100" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
     </row>
     <row r="101" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
     </row>
     <row r="102" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
     </row>
     <row r="103" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
     </row>
     <row r="104" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
     </row>
     <row r="105" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
     </row>
     <row r="106" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
     </row>
     <row r="107" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
     </row>
     <row r="108" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
     </row>
     <row r="109" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
     </row>
     <row r="110" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
     </row>
     <row r="111" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
     </row>
     <row r="112" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
     </row>
     <row r="113" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
     </row>
     <row r="114" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
     </row>
     <row r="115" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
     </row>
     <row r="116" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
     </row>
     <row r="117" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
     </row>
     <row r="118" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
     </row>
     <row r="119" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
     </row>
     <row r="120" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
     </row>
     <row r="121" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
     </row>
     <row r="122" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
     </row>
     <row r="123" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
     </row>
     <row r="124" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
     </row>
     <row r="125" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
     </row>
     <row r="126" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
     </row>
     <row r="127" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
     </row>
     <row r="128" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
     </row>
     <row r="129" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
     </row>
     <row r="130" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
     </row>
     <row r="131" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
     </row>
     <row r="132" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G132" s="5"/>
-      <c r="H132" s="5"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
     </row>
     <row r="133" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
     </row>
     <row r="134" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
     </row>
     <row r="135" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
     </row>
     <row r="136" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
     </row>
     <row r="137" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
     </row>
     <row r="138" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
     </row>
     <row r="139" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
     </row>
     <row r="140" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
     </row>
     <row r="141" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
     </row>
     <row r="142" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
     </row>
     <row r="143" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
     </row>
     <row r="144" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
     </row>
     <row r="145" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
     </row>
     <row r="146" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
     </row>
     <row r="147" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G147" s="5"/>
-      <c r="H147" s="5"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
     </row>
     <row r="148" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
     </row>
     <row r="149" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
     </row>
     <row r="150" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
     </row>
     <row r="151" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
     </row>
     <row r="152" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
     </row>
     <row r="153" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
     </row>
     <row r="154" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
     </row>
     <row r="155" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
     </row>
     <row r="156" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
     </row>
     <row r="157" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
     </row>
     <row r="158" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
     </row>
     <row r="159" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
     </row>
     <row r="160" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
     </row>
     <row r="161" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
     </row>
     <row r="162" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
     </row>
     <row r="163" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
     </row>
     <row r="164" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
     </row>
     <row r="165" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
     </row>
     <row r="166" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
     </row>
     <row r="167" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
     </row>
     <row r="168" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
     </row>
     <row r="169" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
     </row>
     <row r="170" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
     </row>
     <row r="171" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="10"/>
     </row>
     <row r="172" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="10"/>
     </row>
     <row r="173" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10"/>
     </row>
     <row r="174" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G174" s="5"/>
-      <c r="H174" s="5"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="10"/>
     </row>
     <row r="175" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="10"/>
     </row>
     <row r="176" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="10"/>
     </row>
     <row r="177" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G177" s="5"/>
-      <c r="H177" s="5"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
     </row>
     <row r="178" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G178" s="5"/>
-      <c r="H178" s="5"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
     </row>
     <row r="179" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
     </row>
     <row r="180" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G180" s="5"/>
-      <c r="H180" s="5"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
     </row>
     <row r="181" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10"/>
     </row>
     <row r="182" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="10"/>
     </row>
     <row r="183" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
+      <c r="G183" s="10"/>
+      <c r="H183" s="10"/>
     </row>
     <row r="184" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
+      <c r="G184" s="10"/>
+      <c r="H184" s="10"/>
     </row>
     <row r="185" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
     </row>
     <row r="186" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
+      <c r="G186" s="10"/>
+      <c r="H186" s="10"/>
     </row>
     <row r="187" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
     </row>
     <row r="188" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
+      <c r="G188" s="10"/>
+      <c r="H188" s="10"/>
     </row>
     <row r="189" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
     </row>
     <row r="190" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
     </row>
     <row r="191" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
     </row>
     <row r="192" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G192" s="5"/>
-      <c r="H192" s="5"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
     </row>
     <row r="193" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G193" s="5"/>
-      <c r="H193" s="5"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
     </row>
     <row r="194" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
     </row>
     <row r="195" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
     </row>
     <row r="196" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G196" s="5"/>
-      <c r="H196" s="5"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
     </row>
     <row r="197" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
     </row>
     <row r="198" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
+      <c r="G198" s="10"/>
+      <c r="H198" s="10"/>
     </row>
     <row r="199" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
     </row>
     <row r="200" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G200" s="5"/>
-      <c r="H200" s="5"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
     </row>
     <row r="201" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G201" s="5"/>
-      <c r="H201" s="5"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
     </row>
     <row r="202" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
+      <c r="G202" s="10"/>
+      <c r="H202" s="10"/>
     </row>
     <row r="203" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
+      <c r="G203" s="10"/>
+      <c r="H203" s="10"/>
     </row>
     <row r="204" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G204" s="5"/>
-      <c r="H204" s="5"/>
+      <c r="G204" s="10"/>
+      <c r="H204" s="10"/>
     </row>
     <row r="205" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
+      <c r="G205" s="10"/>
+      <c r="H205" s="10"/>
     </row>
     <row r="206" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="10"/>
     </row>
     <row r="207" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G207" s="5"/>
-      <c r="H207" s="5"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="10"/>
     </row>
     <row r="208" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
+      <c r="G208" s="10"/>
+      <c r="H208" s="10"/>
     </row>
     <row r="209" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
+      <c r="G209" s="10"/>
+      <c r="H209" s="10"/>
     </row>
     <row r="210" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
+      <c r="G210" s="10"/>
+      <c r="H210" s="10"/>
     </row>
     <row r="211" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
+      <c r="G211" s="10"/>
+      <c r="H211" s="10"/>
     </row>
     <row r="212" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
+      <c r="G212" s="10"/>
+      <c r="H212" s="10"/>
     </row>
     <row r="213" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
+      <c r="G213" s="10"/>
+      <c r="H213" s="10"/>
     </row>
     <row r="214" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
+      <c r="G214" s="10"/>
+      <c r="H214" s="10"/>
     </row>
     <row r="215" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
+      <c r="G215" s="10"/>
+      <c r="H215" s="10"/>
     </row>
     <row r="216" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
+      <c r="G216" s="10"/>
+      <c r="H216" s="10"/>
     </row>
     <row r="217" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="10"/>
     </row>
     <row r="218" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="10"/>
     </row>
     <row r="219" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="10"/>
     </row>
     <row r="220" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G220" s="5"/>
-      <c r="H220" s="5"/>
+      <c r="G220" s="10"/>
+      <c r="H220" s="10"/>
     </row>
     <row r="221" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G221" s="5"/>
-      <c r="H221" s="5"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="10"/>
     </row>
     <row r="222" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G222" s="5"/>
-      <c r="H222" s="5"/>
+      <c r="G222" s="10"/>
+      <c r="H222" s="10"/>
     </row>
     <row r="223" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G223" s="5"/>
-      <c r="H223" s="5"/>
+      <c r="G223" s="10"/>
+      <c r="H223" s="10"/>
     </row>
     <row r="224" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G224" s="5"/>
-      <c r="H224" s="5"/>
+      <c r="G224" s="10"/>
+      <c r="H224" s="10"/>
     </row>
     <row r="225" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G225" s="5"/>
-      <c r="H225" s="5"/>
+      <c r="G225" s="10"/>
+      <c r="H225" s="10"/>
     </row>
     <row r="226" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G226" s="5"/>
-      <c r="H226" s="5"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
     </row>
     <row r="227" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G227" s="5"/>
-      <c r="H227" s="5"/>
+      <c r="G227" s="10"/>
+      <c r="H227" s="10"/>
     </row>
     <row r="228" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G228" s="5"/>
-      <c r="H228" s="5"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="10"/>
     </row>
     <row r="229" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G229" s="5"/>
-      <c r="H229" s="5"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="10"/>
     </row>
     <row r="230" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G230" s="5"/>
-      <c r="H230" s="5"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="10"/>
     </row>
     <row r="231" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G231" s="5"/>
-      <c r="H231" s="5"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="10"/>
     </row>
     <row r="232" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G232" s="5"/>
-      <c r="H232" s="5"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="10"/>
     </row>
     <row r="233" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G233" s="5"/>
-      <c r="H233" s="5"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="10"/>
+    </row>
+    <row r="234" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G234" s="10"/>
+      <c r="H234" s="10"/>
+    </row>
+    <row r="235" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G235" s="10"/>
+      <c r="H235" s="10"/>
+    </row>
+    <row r="236" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G236" s="10"/>
+      <c r="H236" s="10"/>
+    </row>
+    <row r="237" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G237" s="10"/>
+      <c r="H237" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="301">
+  <mergeCells count="315">
+    <mergeCell ref="W50:AE50"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I25:Q25"/>
+    <mergeCell ref="I26:Q26"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="I28:Q28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="I9:Q9"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="I6:Q6"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G237:H237"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="G230:H230"/>
+    <mergeCell ref="G231:H231"/>
+    <mergeCell ref="G232:H232"/>
+    <mergeCell ref="G233:H233"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="G225:H225"/>
+    <mergeCell ref="G226:H226"/>
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="G214:H214"/>
+    <mergeCell ref="G215:H215"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="G234:H234"/>
+    <mergeCell ref="G235:H235"/>
+    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G221:H221"/>
     <mergeCell ref="I17:Q17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="C11:C22"/>
@@ -2441,297 +2875,16 @@
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G230:H230"/>
-    <mergeCell ref="G231:H231"/>
-    <mergeCell ref="G232:H232"/>
-    <mergeCell ref="G212:H212"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="G214:H214"/>
-    <mergeCell ref="G215:H215"/>
-    <mergeCell ref="G216:H216"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="G210:H210"/>
-    <mergeCell ref="G211:H211"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G233:H233"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="G225:H225"/>
-    <mergeCell ref="G226:H226"/>
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G220:H220"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I22:Q22"/>
-    <mergeCell ref="I25:Q25"/>
-    <mergeCell ref="I26:Q26"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="I3:Q3"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="I5:Q5"/>
-    <mergeCell ref="I6:Q6"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:Q10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="I9:Q9"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="I20:Q20"/>
-    <mergeCell ref="W46:AE46"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="I21:Q21"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E23:E26 E7 E9 E11" xr:uid="{6D1BD59D-2E43-4C32-859B-2273CF1678C7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E7 E9 E11 E30 E23:E25" xr:uid="{6D1BD59D-2E43-4C32-859B-2273CF1678C7}">
       <formula1>"Approved , Not Approved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/CRS_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/CRS_Travel_Advisor_Web_Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\OneDrive\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66043B33-3CE9-4109-9D2C-615EE9381F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBAFFB6-BD68-4421-B8FA-F29E37A85905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
   <si>
     <t>CRS ID</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>SRS-Gallery-05</t>
+  </si>
+  <si>
+    <t>SRS-Reg-10</t>
+  </si>
+  <si>
+    <t>The system shall validate that the "Confirm Password" field matches the "Password" field. If they differ, the system shall display an error message: "Passwords do not match."</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -371,13 +377,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -479,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -493,7 +499,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -501,31 +512,38 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -533,28 +551,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -859,25 +864,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE237"/>
+  <dimension ref="A1:AE238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="125.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.109375"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="125.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.69921875" customWidth="1"/>
+    <col min="7" max="7" width="9.09765625"/>
+    <col min="8" max="8" width="14.59765625" customWidth="1"/>
+    <col min="17" max="17" width="9.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,1708 +901,1958 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="11" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="20"/>
-    </row>
-    <row r="2" spans="1:19" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:19" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="16" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="13" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
     </row>
-    <row r="4" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="14" t="s">
+    <row r="4" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
     </row>
-    <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="14" t="s">
+    <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
     </row>
-    <row r="6" spans="1:19" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="14" t="s">
+    <row r="6" spans="1:19" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
     </row>
-    <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="21" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
     </row>
-    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="14" t="s">
+    <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="16" t="s">
+      <c r="H8" s="20"/>
+      <c r="I8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="16" t="s">
+      <c r="H9" s="20"/>
+      <c r="I9" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
     </row>
-    <row r="10" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="14" t="s">
+    <row r="10" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="15" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="21" t="s">
+      <c r="H12" s="23"/>
+      <c r="I12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
+    <row r="13" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+    <row r="14" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+    <row r="15" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+    <row r="16" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+    <row r="17" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
+    <row r="18" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+    <row r="19" spans="1:19" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
+    <row r="20" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="6" t="s">
+    <row r="21" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="22" t="s">
+      <c r="H22" s="7"/>
+      <c r="I22" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-    </row>
-    <row r="22" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+    <row r="23" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
       <c r="R24" s="10"/>
       <c r="S24" s="10"/>
     </row>
-    <row r="25" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C26" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D26" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="25" t="s">
+      <c r="F26" s="10"/>
+      <c r="G26" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="5" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-    </row>
-    <row r="26" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
     </row>
-    <row r="27" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+    <row r="27" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="10"/>
-      <c r="G27" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
+      <c r="G27" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+    <row r="28" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
       <c r="F28" s="10"/>
-      <c r="G28" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
+      <c r="G28" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
     </row>
-    <row r="29" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+    <row r="29" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-    </row>
-    <row r="30" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+    </row>
+    <row r="31" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>44</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>45</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>46</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-    </row>
-    <row r="31" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>49</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-    </row>
-    <row r="32" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+    </row>
+    <row r="32" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="7:21" x14ac:dyDescent="0.3">
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+    </row>
+    <row r="33" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="7:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-    </row>
-    <row r="48" spans="7:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-    </row>
-    <row r="49" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+    </row>
+    <row r="49" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-    </row>
-    <row r="50" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+    </row>
+    <row r="50" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="23"/>
-      <c r="Z50" s="23"/>
-      <c r="AA50" s="23"/>
-      <c r="AB50" s="23"/>
-      <c r="AC50" s="23"/>
-      <c r="AD50" s="23"/>
-      <c r="AE50" s="23"/>
-    </row>
-    <row r="51" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+    </row>
+    <row r="51" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="6"/>
+      <c r="AE51" s="6"/>
+    </row>
+    <row r="52" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="7:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:31" x14ac:dyDescent="0.25">
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G88" s="10"/>
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G89" s="10"/>
       <c r="H89" s="10"/>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G91" s="10"/>
       <c r="H91" s="10"/>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G92" s="10"/>
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G93" s="10"/>
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G94" s="10"/>
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G96" s="10"/>
       <c r="H96" s="10"/>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
     </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
     </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G99" s="10"/>
       <c r="H99" s="10"/>
     </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
     </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G101" s="10"/>
       <c r="H101" s="10"/>
     </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
     </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G104" s="10"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G105" s="10"/>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G106" s="10"/>
       <c r="H106" s="10"/>
     </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
     </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G108" s="10"/>
       <c r="H108" s="10"/>
     </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
     </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
     </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G111" s="10"/>
       <c r="H111" s="10"/>
     </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G112" s="10"/>
       <c r="H112" s="10"/>
     </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G113" s="10"/>
       <c r="H113" s="10"/>
     </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G114" s="10"/>
       <c r="H114" s="10"/>
     </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G115" s="10"/>
       <c r="H115" s="10"/>
     </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G116" s="10"/>
       <c r="H116" s="10"/>
     </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G117" s="10"/>
       <c r="H117" s="10"/>
     </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G118" s="10"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G119" s="10"/>
       <c r="H119" s="10"/>
     </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G120" s="10"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G121" s="10"/>
       <c r="H121" s="10"/>
     </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G122" s="10"/>
       <c r="H122" s="10"/>
     </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G123" s="10"/>
       <c r="H123" s="10"/>
     </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
     </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
     </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
     </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
     </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
     </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
     </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
     </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
     </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
     </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
     </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
     </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
     </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
     </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
     </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
     </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
     </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
     </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
     </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
     </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
     </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
     </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
     </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
     </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
     </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
     </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
     </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
     </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
     </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
     </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G156" s="10"/>
       <c r="H156" s="10"/>
     </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
     </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
     </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
     </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
     </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
     </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
     </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
     </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
     </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
     </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G166" s="10"/>
       <c r="H166" s="10"/>
     </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
     </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
     </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
     </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
     </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
     </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G172" s="10"/>
       <c r="H172" s="10"/>
     </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
     </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
     </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
     </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
     </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G177" s="10"/>
       <c r="H177" s="10"/>
     </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G178" s="10"/>
       <c r="H178" s="10"/>
     </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G179" s="10"/>
       <c r="H179" s="10"/>
     </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G180" s="10"/>
       <c r="H180" s="10"/>
     </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G181" s="10"/>
       <c r="H181" s="10"/>
     </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G182" s="10"/>
       <c r="H182" s="10"/>
     </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G183" s="10"/>
       <c r="H183" s="10"/>
     </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G184" s="10"/>
       <c r="H184" s="10"/>
     </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G185" s="10"/>
       <c r="H185" s="10"/>
     </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G186" s="10"/>
       <c r="H186" s="10"/>
     </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G187" s="10"/>
       <c r="H187" s="10"/>
     </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G188" s="10"/>
       <c r="H188" s="10"/>
     </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G189" s="10"/>
       <c r="H189" s="10"/>
     </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G190" s="10"/>
       <c r="H190" s="10"/>
     </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G191" s="10"/>
       <c r="H191" s="10"/>
     </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G192" s="10"/>
       <c r="H192" s="10"/>
     </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G193" s="10"/>
       <c r="H193" s="10"/>
     </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G194" s="10"/>
       <c r="H194" s="10"/>
     </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G195" s="10"/>
       <c r="H195" s="10"/>
     </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G196" s="10"/>
       <c r="H196" s="10"/>
     </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G197" s="10"/>
       <c r="H197" s="10"/>
     </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G198" s="10"/>
       <c r="H198" s="10"/>
     </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G199" s="10"/>
       <c r="H199" s="10"/>
     </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G200" s="10"/>
       <c r="H200" s="10"/>
     </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G201" s="10"/>
       <c r="H201" s="10"/>
     </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G202" s="10"/>
       <c r="H202" s="10"/>
     </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G203" s="10"/>
       <c r="H203" s="10"/>
     </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G204" s="10"/>
       <c r="H204" s="10"/>
     </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G205" s="10"/>
       <c r="H205" s="10"/>
     </row>
-    <row r="206" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G206" s="10"/>
       <c r="H206" s="10"/>
     </row>
-    <row r="207" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G207" s="10"/>
       <c r="H207" s="10"/>
     </row>
-    <row r="208" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G208" s="10"/>
       <c r="H208" s="10"/>
     </row>
-    <row r="209" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G209" s="10"/>
       <c r="H209" s="10"/>
     </row>
-    <row r="210" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G210" s="10"/>
       <c r="H210" s="10"/>
     </row>
-    <row r="211" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G211" s="10"/>
       <c r="H211" s="10"/>
     </row>
-    <row r="212" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G212" s="10"/>
       <c r="H212" s="10"/>
     </row>
-    <row r="213" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G213" s="10"/>
       <c r="H213" s="10"/>
     </row>
-    <row r="214" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G214" s="10"/>
       <c r="H214" s="10"/>
     </row>
-    <row r="215" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G215" s="10"/>
       <c r="H215" s="10"/>
     </row>
-    <row r="216" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G216" s="10"/>
       <c r="H216" s="10"/>
     </row>
-    <row r="217" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G217" s="10"/>
       <c r="H217" s="10"/>
     </row>
-    <row r="218" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G218" s="10"/>
       <c r="H218" s="10"/>
     </row>
-    <row r="219" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G219" s="10"/>
       <c r="H219" s="10"/>
     </row>
-    <row r="220" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G220" s="10"/>
       <c r="H220" s="10"/>
     </row>
-    <row r="221" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G221" s="10"/>
       <c r="H221" s="10"/>
     </row>
-    <row r="222" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G222" s="10"/>
       <c r="H222" s="10"/>
     </row>
-    <row r="223" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G223" s="10"/>
       <c r="H223" s="10"/>
     </row>
-    <row r="224" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G224" s="10"/>
       <c r="H224" s="10"/>
     </row>
-    <row r="225" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G225" s="10"/>
       <c r="H225" s="10"/>
     </row>
-    <row r="226" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G226" s="10"/>
       <c r="H226" s="10"/>
     </row>
-    <row r="227" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G227" s="10"/>
       <c r="H227" s="10"/>
     </row>
-    <row r="228" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G228" s="10"/>
       <c r="H228" s="10"/>
     </row>
-    <row r="229" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G229" s="10"/>
       <c r="H229" s="10"/>
     </row>
-    <row r="230" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G230" s="10"/>
       <c r="H230" s="10"/>
     </row>
-    <row r="231" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G231" s="10"/>
       <c r="H231" s="10"/>
     </row>
-    <row r="232" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G232" s="10"/>
       <c r="H232" s="10"/>
     </row>
-    <row r="233" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G233" s="10"/>
       <c r="H233" s="10"/>
     </row>
-    <row r="234" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G234" s="10"/>
       <c r="H234" s="10"/>
     </row>
-    <row r="235" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G235" s="10"/>
       <c r="H235" s="10"/>
     </row>
-    <row r="236" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G236" s="10"/>
       <c r="H236" s="10"/>
     </row>
-    <row r="237" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G237" s="10"/>
       <c r="H237" s="10"/>
     </row>
+    <row r="238" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G238" s="10"/>
+      <c r="H238" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="315">
-    <mergeCell ref="W50:AE50"/>
+  <mergeCells count="318">
+    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B12:B23"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
     <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C12:C23"/>
+    <mergeCell ref="D12:D23"/>
+    <mergeCell ref="E12:E23"/>
+    <mergeCell ref="F12:F23"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="G214:H214"/>
+    <mergeCell ref="G215:H215"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="G238:H238"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="G230:H230"/>
+    <mergeCell ref="G231:H231"/>
+    <mergeCell ref="G232:H232"/>
+    <mergeCell ref="G233:H233"/>
+    <mergeCell ref="G234:H234"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="G225:H225"/>
+    <mergeCell ref="G226:H226"/>
+    <mergeCell ref="G227:H227"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="G235:H235"/>
+    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="G237:H237"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I25:Q25"/>
-    <mergeCell ref="I26:Q26"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="I28:Q28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="I9:Q9"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="R3:S3"/>
@@ -2614,277 +2869,55 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="R7:S7"/>
     <mergeCell ref="R8:S8"/>
-    <mergeCell ref="I29:Q29"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="I31:Q31"/>
     <mergeCell ref="I1:Q1"/>
     <mergeCell ref="I2:Q2"/>
     <mergeCell ref="I3:Q3"/>
     <mergeCell ref="I4:Q4"/>
     <mergeCell ref="I5:Q5"/>
     <mergeCell ref="I6:Q6"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="I9:Q9"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="I21:Q21"/>
     <mergeCell ref="I10:Q10"/>
-    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="W51:AE51"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:Q26"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="I28:Q28"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="I32:Q32"/>
     <mergeCell ref="T49:U49"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I22:Q22"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G237:H237"/>
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="G230:H230"/>
-    <mergeCell ref="G231:H231"/>
-    <mergeCell ref="G232:H232"/>
-    <mergeCell ref="G233:H233"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="G225:H225"/>
-    <mergeCell ref="G226:H226"/>
-    <mergeCell ref="G227:H227"/>
-    <mergeCell ref="G210:H210"/>
-    <mergeCell ref="G211:H211"/>
-    <mergeCell ref="G212:H212"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="G214:H214"/>
-    <mergeCell ref="G215:H215"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="G234:H234"/>
-    <mergeCell ref="G235:H235"/>
-    <mergeCell ref="G236:H236"/>
-    <mergeCell ref="G216:H216"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G220:H220"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="I17:Q17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="C11:C22"/>
-    <mergeCell ref="D11:D22"/>
-    <mergeCell ref="E11:E22"/>
-    <mergeCell ref="F11:F22"/>
-    <mergeCell ref="A11:A21"/>
-    <mergeCell ref="B11:B22"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E7 E9 E11 E30 E23:E25" xr:uid="{6D1BD59D-2E43-4C32-859B-2273CF1678C7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E7 E9 E12 E31 E24:E26" xr:uid="{6D1BD59D-2E43-4C32-859B-2273CF1678C7}">
       <formula1>"Approved , Not Approved"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Requirments/CRS_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/CRS_Travel_Advisor_Web_Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\ITI\Quality Assurance  Dr.mohamed hassen\workshop Repo\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6691678-386E-4C29-A00F-81F0BE3D3F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DED8045-DA1D-423F-BC18-DEB215368C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="157">
   <si>
     <t>CRS ID</t>
   </si>
@@ -480,6 +480,64 @@
   </si>
   <si>
     <t xml:space="preserve"> The system shall allow the user to optionally enter a textual comment in a comment box.</t>
+  </si>
+  <si>
+    <t>TC-Rate-01</t>
+  </si>
+  <si>
+    <t>TC-Rate-02</t>
+  </si>
+  <si>
+    <t>TC-Rate-03</t>
+  </si>
+  <si>
+    <t>TC-Rate-04</t>
+  </si>
+  <si>
+    <t>TC-Rate-05,TC-Rate06</t>
+  </si>
+  <si>
+    <t>TC-REG-01</t>
+  </si>
+  <si>
+    <t>TC-REG-02</t>
+  </si>
+  <si>
+    <t>TC-REG-03</t>
+  </si>
+  <si>
+    <t>TC-REG-05</t>
+  </si>
+  <si>
+    <t>TC-REG-07
+TC-REG-02</t>
+  </si>
+  <si>
+    <t>TC-REG-06
+TC-REG-11
+TC-REG-12
+TC-REG-13</t>
+  </si>
+  <si>
+    <t>TC-REG-16</t>
+  </si>
+  <si>
+    <t>TC-REG-08
+TC-REG-17
+TC-REG-18
+TC-REG-19</t>
+  </si>
+  <si>
+    <t>TC-REG-09
+TC-REG-14
+TC-REG-15
+TC-REG-20</t>
+  </si>
+  <si>
+    <t>TC-REG-04
+TC-REG-21
+TC-REG-22
+TC-REG-23</t>
   </si>
 </sst>
 </file>
@@ -739,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -765,6 +823,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -774,101 +928,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1176,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:H28"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1210,11 +1271,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="29" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="26" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="30"/>
@@ -1224,738 +1285,768 @@
       <c r="N1" s="30"/>
       <c r="O1" s="30"/>
       <c r="P1" s="30"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="29" t="s">
+      <c r="Q1" s="27"/>
+      <c r="R1" s="26" t="s">
         <v>8</v>
       </c>
       <c r="S1" s="30"/>
     </row>
     <row r="2" spans="1:19" ht="85.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="31" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="31" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="12" t="s">
+      <c r="H3" s="19"/>
+      <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="31" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="19"/>
+      <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="31" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:19" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="12" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="S5" s="9"/>
     </row>
     <row r="6" spans="1:19" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="31" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:19" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="19"/>
+      <c r="I7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="S7" s="9"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="31" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="12" t="s">
+      <c r="H8" s="19"/>
+      <c r="I8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S8" s="9"/>
+    </row>
+    <row r="9" spans="1:19" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="31" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="12" t="s">
+      <c r="H9" s="19"/>
+      <c r="I9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="31" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="12" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="31" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="12" t="s">
+      <c r="H11" s="19"/>
+      <c r="I11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="26" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="12" t="s">
+      <c r="H12" s="20"/>
+      <c r="I12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="26" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="12" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
     </row>
     <row r="14" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="26" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="20"/>
+      <c r="I14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
     </row>
     <row r="15" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="26" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="12" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
     </row>
     <row r="16" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="26" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="20"/>
+      <c r="I16" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
     </row>
     <row r="17" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="26" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="12" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
     </row>
     <row r="18" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="26" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="12" t="s">
+      <c r="H18" s="20"/>
+      <c r="I18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
     </row>
     <row r="19" spans="1:19" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="26" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="12" t="s">
+      <c r="H19" s="20"/>
+      <c r="I19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
     </row>
     <row r="20" spans="1:19" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="26" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="12" t="s">
+      <c r="H20" s="20"/>
+      <c r="I20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
     </row>
     <row r="21" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="26" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="12" t="s">
+      <c r="H21" s="20"/>
+      <c r="I21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
     </row>
     <row r="22" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="26" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="12" t="s">
+      <c r="H22" s="20"/>
+      <c r="I22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
     </row>
     <row r="23" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="26" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="12" t="s">
+      <c r="H23" s="20"/>
+      <c r="I23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
     </row>
     <row r="24" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D24" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="12" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13" t="s">
+      <c r="H24" s="44"/>
+      <c r="I24" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="S24" s="9"/>
     </row>
     <row r="25" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="12" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13" t="s">
+      <c r="H25" s="44"/>
+      <c r="I25" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="S25" s="9"/>
     </row>
     <row r="26" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="12" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13" t="s">
+      <c r="H26" s="44"/>
+      <c r="I26" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="S26" s="9"/>
     </row>
     <row r="27" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="12" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13" t="s">
+      <c r="H27" s="44"/>
+      <c r="I27" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="S27" s="9"/>
     </row>
     <row r="28" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="12" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13" t="s">
+      <c r="H28" s="44"/>
+      <c r="I28" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="S28" s="9"/>
     </row>
     <row r="29" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
@@ -1974,295 +2065,295 @@
         <v>13</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="21" t="s">
+      <c r="H29" s="24"/>
+      <c r="I29" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="12" t="s">
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="S29" s="12"/>
+      <c r="S29" s="9"/>
     </row>
     <row r="30" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="27" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="12" t="s">
+      <c r="H30" s="33"/>
+      <c r="I30" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="12"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="9"/>
     </row>
     <row r="31" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="28" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="12" t="s">
+      <c r="H31" s="34"/>
+      <c r="I31" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="12"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="9"/>
     </row>
     <row r="32" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="27" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="27"/>
-      <c r="I32" s="15" t="s">
+      <c r="H32" s="33"/>
+      <c r="I32" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="12"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="9"/>
     </row>
     <row r="33" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="27" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="15" t="s">
+      <c r="H33" s="33"/>
+      <c r="I33" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="12"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="9"/>
     </row>
     <row r="34" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="27" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="15" t="s">
+      <c r="H34" s="33"/>
+      <c r="I34" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="12"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="9"/>
     </row>
     <row r="35" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14" t="s">
+      <c r="F35" s="10"/>
+      <c r="G35" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="15" t="s">
+      <c r="H35" s="28"/>
+      <c r="I35" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="12"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="9"/>
     </row>
     <row r="36" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14" t="s">
+      <c r="A36" s="42"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="15" t="s">
+      <c r="H36" s="28"/>
+      <c r="I36" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="12"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="9"/>
     </row>
     <row r="37" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14" t="s">
+      <c r="A37" s="42"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="15" t="s">
+      <c r="H37" s="28"/>
+      <c r="I37" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="12"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="9"/>
     </row>
     <row r="38" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14" t="s">
+      <c r="A38" s="42"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15" t="s">
+      <c r="H38" s="28"/>
+      <c r="I38" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="12"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="9"/>
     </row>
     <row r="39" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14" t="s">
+      <c r="A39" s="43"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15" t="s">
+      <c r="H39" s="28"/>
+      <c r="I39" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="12"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="9"/>
     </row>
     <row r="40" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -2279,23 +2370,23 @@
         <v>13</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="H40" s="14"/>
-      <c r="I40" s="15" t="s">
+      <c r="H40" s="28"/>
+      <c r="I40" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="12"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="9"/>
     </row>
     <row r="41" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
@@ -2312,133 +2403,133 @@
         <v>13</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="34" t="s">
+      <c r="G41" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="H41" s="34"/>
-      <c r="I41" s="12" t="s">
+      <c r="H41" s="25"/>
+      <c r="I41" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="12"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="9"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="35" t="s">
+      <c r="F42" s="9"/>
+      <c r="G42" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H42" s="35"/>
-      <c r="I42" s="12" t="s">
+      <c r="H42" s="22"/>
+      <c r="I42" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="12"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="9"/>
     </row>
     <row r="43" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="35" t="s">
+      <c r="A43" s="39"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="H43" s="35"/>
-      <c r="I43" s="12" t="s">
+      <c r="H43" s="22"/>
+      <c r="I43" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="12"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="9"/>
     </row>
     <row r="44" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="35" t="s">
+      <c r="A44" s="39"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="H44" s="35"/>
-      <c r="I44" s="12" t="s">
+      <c r="H44" s="22"/>
+      <c r="I44" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="12"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="9"/>
     </row>
     <row r="45" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="35" t="s">
+      <c r="A45" s="40"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="H45" s="35"/>
-      <c r="I45" s="12" t="s">
+      <c r="H45" s="22"/>
+      <c r="I45" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="12"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="9"/>
     </row>
     <row r="46" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
@@ -2449,19 +2540,19 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="12"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="9"/>
     </row>
     <row r="47" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
@@ -2470,19 +2561,19 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="12"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="9"/>
     </row>
     <row r="48" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -2491,19 +2582,19 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="12"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="9"/>
     </row>
     <row r="49" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
@@ -2512,19 +2603,19 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
     </row>
     <row r="50" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
@@ -2533,853 +2624,1147 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
     </row>
     <row r="56" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
     </row>
     <row r="57" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
     </row>
     <row r="58" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="W59" s="24"/>
-      <c r="X59" s="25"/>
-      <c r="Y59" s="25"/>
-      <c r="Z59" s="25"/>
-      <c r="AA59" s="25"/>
-      <c r="AB59" s="25"/>
-      <c r="AC59" s="25"/>
-      <c r="AD59" s="25"/>
-      <c r="AE59" s="25"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="W59" s="31"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="32"/>
+      <c r="Z59" s="32"/>
+      <c r="AA59" s="32"/>
+      <c r="AB59" s="32"/>
+      <c r="AC59" s="32"/>
+      <c r="AD59" s="32"/>
+      <c r="AE59" s="32"/>
     </row>
     <row r="60" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
     </row>
     <row r="61" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
     </row>
     <row r="62" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
     </row>
     <row r="63" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
     </row>
     <row r="64" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
     </row>
     <row r="65" spans="7:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
     </row>
     <row r="66" spans="7:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
     </row>
     <row r="67" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
     </row>
     <row r="68" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
     </row>
     <row r="69" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
     </row>
     <row r="70" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
     </row>
     <row r="71" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
     </row>
     <row r="72" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
     </row>
     <row r="73" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
     </row>
     <row r="74" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
     </row>
     <row r="75" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
     </row>
     <row r="76" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
     </row>
     <row r="77" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
     </row>
     <row r="78" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
     </row>
     <row r="79" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
     </row>
     <row r="80" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
     </row>
     <row r="81" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
     </row>
     <row r="82" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
     </row>
     <row r="83" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
     </row>
     <row r="84" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
     </row>
     <row r="85" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
     </row>
     <row r="86" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
     </row>
     <row r="87" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
     </row>
     <row r="88" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
     </row>
     <row r="89" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
     </row>
     <row r="90" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
+      <c r="G90" s="21"/>
+      <c r="H90" s="21"/>
     </row>
     <row r="91" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
     </row>
     <row r="92" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
     </row>
     <row r="93" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
     </row>
     <row r="94" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
     </row>
     <row r="95" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
+      <c r="G95" s="21"/>
+      <c r="H95" s="21"/>
     </row>
     <row r="96" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
+      <c r="G96" s="21"/>
+      <c r="H96" s="21"/>
     </row>
     <row r="97" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
     </row>
     <row r="98" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
     </row>
     <row r="99" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
     </row>
     <row r="100" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G100" s="37"/>
-      <c r="H100" s="37"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
     </row>
     <row r="101" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
     </row>
     <row r="102" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G102" s="37"/>
-      <c r="H102" s="37"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
     </row>
     <row r="103" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G103" s="37"/>
-      <c r="H103" s="37"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
     </row>
     <row r="104" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G104" s="37"/>
-      <c r="H104" s="37"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
     </row>
     <row r="105" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G105" s="37"/>
-      <c r="H105" s="37"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
     </row>
     <row r="106" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
     </row>
     <row r="107" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G107" s="37"/>
-      <c r="H107" s="37"/>
+      <c r="G107" s="21"/>
+      <c r="H107" s="21"/>
     </row>
     <row r="108" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
+      <c r="G108" s="21"/>
+      <c r="H108" s="21"/>
     </row>
     <row r="109" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G109" s="37"/>
-      <c r="H109" s="37"/>
+      <c r="G109" s="21"/>
+      <c r="H109" s="21"/>
     </row>
     <row r="110" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G110" s="37"/>
-      <c r="H110" s="37"/>
+      <c r="G110" s="21"/>
+      <c r="H110" s="21"/>
     </row>
     <row r="111" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
+      <c r="G111" s="21"/>
+      <c r="H111" s="21"/>
     </row>
     <row r="112" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G112" s="37"/>
-      <c r="H112" s="37"/>
+      <c r="G112" s="21"/>
+      <c r="H112" s="21"/>
     </row>
     <row r="113" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G113" s="37"/>
-      <c r="H113" s="37"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
     </row>
     <row r="114" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G114" s="37"/>
-      <c r="H114" s="37"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
     </row>
     <row r="115" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G115" s="37"/>
-      <c r="H115" s="37"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
     </row>
     <row r="116" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G116" s="37"/>
-      <c r="H116" s="37"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
     </row>
     <row r="117" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G117" s="37"/>
-      <c r="H117" s="37"/>
+      <c r="G117" s="21"/>
+      <c r="H117" s="21"/>
     </row>
     <row r="118" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G118" s="37"/>
-      <c r="H118" s="37"/>
+      <c r="G118" s="21"/>
+      <c r="H118" s="21"/>
     </row>
     <row r="119" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G119" s="37"/>
-      <c r="H119" s="37"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
     </row>
     <row r="120" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G120" s="37"/>
-      <c r="H120" s="37"/>
+      <c r="G120" s="21"/>
+      <c r="H120" s="21"/>
     </row>
     <row r="121" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
+      <c r="G121" s="21"/>
+      <c r="H121" s="21"/>
     </row>
     <row r="122" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G122" s="37"/>
-      <c r="H122" s="37"/>
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
     </row>
     <row r="123" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G123" s="37"/>
-      <c r="H123" s="37"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="21"/>
     </row>
     <row r="124" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
+      <c r="G124" s="21"/>
+      <c r="H124" s="21"/>
     </row>
     <row r="125" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
+      <c r="G125" s="21"/>
+      <c r="H125" s="21"/>
     </row>
     <row r="126" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
+      <c r="G126" s="21"/>
+      <c r="H126" s="21"/>
     </row>
     <row r="127" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
     </row>
     <row r="128" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
     </row>
     <row r="129" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G129" s="37"/>
-      <c r="H129" s="37"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
     </row>
     <row r="130" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
     </row>
     <row r="131" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G131" s="37"/>
-      <c r="H131" s="37"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
     </row>
     <row r="132" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
     </row>
     <row r="133" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
+      <c r="G133" s="21"/>
+      <c r="H133" s="21"/>
     </row>
     <row r="134" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
     </row>
     <row r="135" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
+      <c r="G135" s="21"/>
+      <c r="H135" s="21"/>
     </row>
     <row r="136" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
     </row>
     <row r="137" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
     </row>
     <row r="138" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
+      <c r="G138" s="21"/>
+      <c r="H138" s="21"/>
     </row>
     <row r="139" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
+      <c r="G139" s="21"/>
+      <c r="H139" s="21"/>
     </row>
     <row r="140" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
+      <c r="G140" s="21"/>
+      <c r="H140" s="21"/>
     </row>
     <row r="141" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
     </row>
     <row r="142" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G142" s="37"/>
-      <c r="H142" s="37"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21"/>
     </row>
     <row r="143" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G143" s="37"/>
-      <c r="H143" s="37"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="21"/>
     </row>
     <row r="144" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="21"/>
     </row>
     <row r="145" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G145" s="37"/>
-      <c r="H145" s="37"/>
+      <c r="G145" s="21"/>
+      <c r="H145" s="21"/>
     </row>
     <row r="146" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G146" s="37"/>
-      <c r="H146" s="37"/>
+      <c r="G146" s="21"/>
+      <c r="H146" s="21"/>
     </row>
     <row r="147" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G147" s="37"/>
-      <c r="H147" s="37"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="21"/>
     </row>
     <row r="148" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
+      <c r="G148" s="21"/>
+      <c r="H148" s="21"/>
     </row>
     <row r="149" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G149" s="37"/>
-      <c r="H149" s="37"/>
+      <c r="G149" s="21"/>
+      <c r="H149" s="21"/>
     </row>
     <row r="150" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G150" s="37"/>
-      <c r="H150" s="37"/>
+      <c r="G150" s="21"/>
+      <c r="H150" s="21"/>
     </row>
     <row r="151" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G151" s="37"/>
-      <c r="H151" s="37"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="21"/>
     </row>
     <row r="152" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G152" s="37"/>
-      <c r="H152" s="37"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="21"/>
     </row>
     <row r="153" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G153" s="37"/>
-      <c r="H153" s="37"/>
+      <c r="G153" s="21"/>
+      <c r="H153" s="21"/>
     </row>
     <row r="154" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G154" s="37"/>
-      <c r="H154" s="37"/>
+      <c r="G154" s="21"/>
+      <c r="H154" s="21"/>
     </row>
     <row r="155" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G155" s="37"/>
-      <c r="H155" s="37"/>
+      <c r="G155" s="21"/>
+      <c r="H155" s="21"/>
     </row>
     <row r="156" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G156" s="37"/>
-      <c r="H156" s="37"/>
+      <c r="G156" s="21"/>
+      <c r="H156" s="21"/>
     </row>
     <row r="157" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G157" s="37"/>
-      <c r="H157" s="37"/>
+      <c r="G157" s="21"/>
+      <c r="H157" s="21"/>
     </row>
     <row r="158" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G158" s="37"/>
-      <c r="H158" s="37"/>
+      <c r="G158" s="21"/>
+      <c r="H158" s="21"/>
     </row>
     <row r="159" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G159" s="37"/>
-      <c r="H159" s="37"/>
+      <c r="G159" s="21"/>
+      <c r="H159" s="21"/>
     </row>
     <row r="160" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G160" s="37"/>
-      <c r="H160" s="37"/>
+      <c r="G160" s="21"/>
+      <c r="H160" s="21"/>
     </row>
     <row r="161" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G161" s="37"/>
-      <c r="H161" s="37"/>
+      <c r="G161" s="21"/>
+      <c r="H161" s="21"/>
     </row>
     <row r="162" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G162" s="37"/>
-      <c r="H162" s="37"/>
+      <c r="G162" s="21"/>
+      <c r="H162" s="21"/>
     </row>
     <row r="163" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G163" s="37"/>
-      <c r="H163" s="37"/>
+      <c r="G163" s="21"/>
+      <c r="H163" s="21"/>
     </row>
     <row r="164" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G164" s="37"/>
-      <c r="H164" s="37"/>
+      <c r="G164" s="21"/>
+      <c r="H164" s="21"/>
     </row>
     <row r="165" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G165" s="37"/>
-      <c r="H165" s="37"/>
+      <c r="G165" s="21"/>
+      <c r="H165" s="21"/>
     </row>
     <row r="166" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G166" s="37"/>
-      <c r="H166" s="37"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="21"/>
     </row>
     <row r="167" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G167" s="37"/>
-      <c r="H167" s="37"/>
+      <c r="G167" s="21"/>
+      <c r="H167" s="21"/>
     </row>
     <row r="168" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G168" s="37"/>
-      <c r="H168" s="37"/>
+      <c r="G168" s="21"/>
+      <c r="H168" s="21"/>
     </row>
     <row r="169" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G169" s="37"/>
-      <c r="H169" s="37"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21"/>
     </row>
     <row r="170" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G170" s="37"/>
-      <c r="H170" s="37"/>
+      <c r="G170" s="21"/>
+      <c r="H170" s="21"/>
     </row>
     <row r="171" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G171" s="37"/>
-      <c r="H171" s="37"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="21"/>
     </row>
     <row r="172" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G172" s="37"/>
-      <c r="H172" s="37"/>
+      <c r="G172" s="21"/>
+      <c r="H172" s="21"/>
     </row>
     <row r="173" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G173" s="37"/>
-      <c r="H173" s="37"/>
+      <c r="G173" s="21"/>
+      <c r="H173" s="21"/>
     </row>
     <row r="174" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G174" s="37"/>
-      <c r="H174" s="37"/>
+      <c r="G174" s="21"/>
+      <c r="H174" s="21"/>
     </row>
     <row r="175" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G175" s="37"/>
-      <c r="H175" s="37"/>
+      <c r="G175" s="21"/>
+      <c r="H175" s="21"/>
     </row>
     <row r="176" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G176" s="37"/>
-      <c r="H176" s="37"/>
+      <c r="G176" s="21"/>
+      <c r="H176" s="21"/>
     </row>
     <row r="177" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G177" s="37"/>
-      <c r="H177" s="37"/>
+      <c r="G177" s="21"/>
+      <c r="H177" s="21"/>
     </row>
     <row r="178" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G178" s="37"/>
-      <c r="H178" s="37"/>
+      <c r="G178" s="21"/>
+      <c r="H178" s="21"/>
     </row>
     <row r="179" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G179" s="37"/>
-      <c r="H179" s="37"/>
+      <c r="G179" s="21"/>
+      <c r="H179" s="21"/>
     </row>
     <row r="180" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G180" s="37"/>
-      <c r="H180" s="37"/>
+      <c r="G180" s="21"/>
+      <c r="H180" s="21"/>
     </row>
     <row r="181" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G181" s="37"/>
-      <c r="H181" s="37"/>
+      <c r="G181" s="21"/>
+      <c r="H181" s="21"/>
     </row>
     <row r="182" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G182" s="37"/>
-      <c r="H182" s="37"/>
+      <c r="G182" s="21"/>
+      <c r="H182" s="21"/>
     </row>
     <row r="183" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G183" s="37"/>
-      <c r="H183" s="37"/>
+      <c r="G183" s="21"/>
+      <c r="H183" s="21"/>
     </row>
     <row r="184" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G184" s="37"/>
-      <c r="H184" s="37"/>
+      <c r="G184" s="21"/>
+      <c r="H184" s="21"/>
     </row>
     <row r="185" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G185" s="37"/>
-      <c r="H185" s="37"/>
+      <c r="G185" s="21"/>
+      <c r="H185" s="21"/>
     </row>
     <row r="186" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G186" s="37"/>
-      <c r="H186" s="37"/>
+      <c r="G186" s="21"/>
+      <c r="H186" s="21"/>
     </row>
     <row r="187" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G187" s="37"/>
-      <c r="H187" s="37"/>
+      <c r="G187" s="21"/>
+      <c r="H187" s="21"/>
     </row>
     <row r="188" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G188" s="37"/>
-      <c r="H188" s="37"/>
+      <c r="G188" s="21"/>
+      <c r="H188" s="21"/>
     </row>
     <row r="189" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G189" s="37"/>
-      <c r="H189" s="37"/>
+      <c r="G189" s="21"/>
+      <c r="H189" s="21"/>
     </row>
     <row r="190" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G190" s="37"/>
-      <c r="H190" s="37"/>
+      <c r="G190" s="21"/>
+      <c r="H190" s="21"/>
     </row>
     <row r="191" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G191" s="37"/>
-      <c r="H191" s="37"/>
+      <c r="G191" s="21"/>
+      <c r="H191" s="21"/>
     </row>
     <row r="192" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G192" s="37"/>
-      <c r="H192" s="37"/>
+      <c r="G192" s="21"/>
+      <c r="H192" s="21"/>
     </row>
     <row r="193" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G193" s="37"/>
-      <c r="H193" s="37"/>
+      <c r="G193" s="21"/>
+      <c r="H193" s="21"/>
     </row>
     <row r="194" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G194" s="37"/>
-      <c r="H194" s="37"/>
+      <c r="G194" s="21"/>
+      <c r="H194" s="21"/>
     </row>
     <row r="195" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G195" s="37"/>
-      <c r="H195" s="37"/>
+      <c r="G195" s="21"/>
+      <c r="H195" s="21"/>
     </row>
     <row r="196" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G196" s="37"/>
-      <c r="H196" s="37"/>
+      <c r="G196" s="21"/>
+      <c r="H196" s="21"/>
     </row>
     <row r="197" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G197" s="37"/>
-      <c r="H197" s="37"/>
+      <c r="G197" s="21"/>
+      <c r="H197" s="21"/>
     </row>
     <row r="198" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G198" s="37"/>
-      <c r="H198" s="37"/>
+      <c r="G198" s="21"/>
+      <c r="H198" s="21"/>
     </row>
     <row r="199" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G199" s="37"/>
-      <c r="H199" s="37"/>
+      <c r="G199" s="21"/>
+      <c r="H199" s="21"/>
     </row>
     <row r="200" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G200" s="37"/>
-      <c r="H200" s="37"/>
+      <c r="G200" s="21"/>
+      <c r="H200" s="21"/>
     </row>
     <row r="201" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G201" s="37"/>
-      <c r="H201" s="37"/>
+      <c r="G201" s="21"/>
+      <c r="H201" s="21"/>
     </row>
     <row r="202" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G202" s="37"/>
-      <c r="H202" s="37"/>
+      <c r="G202" s="21"/>
+      <c r="H202" s="21"/>
     </row>
     <row r="203" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G203" s="37"/>
-      <c r="H203" s="37"/>
+      <c r="G203" s="21"/>
+      <c r="H203" s="21"/>
     </row>
     <row r="204" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G204" s="37"/>
-      <c r="H204" s="37"/>
+      <c r="G204" s="21"/>
+      <c r="H204" s="21"/>
     </row>
     <row r="205" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G205" s="37"/>
-      <c r="H205" s="37"/>
+      <c r="G205" s="21"/>
+      <c r="H205" s="21"/>
     </row>
     <row r="206" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G206" s="37"/>
-      <c r="H206" s="37"/>
+      <c r="G206" s="21"/>
+      <c r="H206" s="21"/>
     </row>
     <row r="207" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G207" s="37"/>
-      <c r="H207" s="37"/>
+      <c r="G207" s="21"/>
+      <c r="H207" s="21"/>
     </row>
     <row r="208" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G208" s="37"/>
-      <c r="H208" s="37"/>
+      <c r="G208" s="21"/>
+      <c r="H208" s="21"/>
     </row>
     <row r="209" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G209" s="37"/>
-      <c r="H209" s="37"/>
+      <c r="G209" s="21"/>
+      <c r="H209" s="21"/>
     </row>
     <row r="210" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G210" s="37"/>
-      <c r="H210" s="37"/>
+      <c r="G210" s="21"/>
+      <c r="H210" s="21"/>
     </row>
     <row r="211" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G211" s="37"/>
-      <c r="H211" s="37"/>
+      <c r="G211" s="21"/>
+      <c r="H211" s="21"/>
     </row>
     <row r="212" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G212" s="37"/>
-      <c r="H212" s="37"/>
+      <c r="G212" s="21"/>
+      <c r="H212" s="21"/>
     </row>
     <row r="213" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G213" s="37"/>
-      <c r="H213" s="37"/>
+      <c r="G213" s="21"/>
+      <c r="H213" s="21"/>
     </row>
     <row r="214" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G214" s="37"/>
-      <c r="H214" s="37"/>
+      <c r="G214" s="21"/>
+      <c r="H214" s="21"/>
     </row>
     <row r="215" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G215" s="37"/>
-      <c r="H215" s="37"/>
+      <c r="G215" s="21"/>
+      <c r="H215" s="21"/>
     </row>
     <row r="216" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G216" s="37"/>
-      <c r="H216" s="37"/>
+      <c r="G216" s="21"/>
+      <c r="H216" s="21"/>
     </row>
     <row r="217" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G217" s="37"/>
-      <c r="H217" s="37"/>
+      <c r="G217" s="21"/>
+      <c r="H217" s="21"/>
     </row>
     <row r="218" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G218" s="37"/>
-      <c r="H218" s="37"/>
+      <c r="G218" s="21"/>
+      <c r="H218" s="21"/>
     </row>
     <row r="219" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G219" s="37"/>
-      <c r="H219" s="37"/>
+      <c r="G219" s="21"/>
+      <c r="H219" s="21"/>
     </row>
     <row r="220" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G220" s="37"/>
-      <c r="H220" s="37"/>
+      <c r="G220" s="21"/>
+      <c r="H220" s="21"/>
     </row>
     <row r="221" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G221" s="37"/>
-      <c r="H221" s="37"/>
+      <c r="G221" s="21"/>
+      <c r="H221" s="21"/>
     </row>
     <row r="222" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G222" s="37"/>
-      <c r="H222" s="37"/>
+      <c r="G222" s="21"/>
+      <c r="H222" s="21"/>
     </row>
     <row r="223" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G223" s="37"/>
-      <c r="H223" s="37"/>
+      <c r="G223" s="21"/>
+      <c r="H223" s="21"/>
     </row>
     <row r="224" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G224" s="37"/>
-      <c r="H224" s="37"/>
+      <c r="G224" s="21"/>
+      <c r="H224" s="21"/>
     </row>
     <row r="225" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G225" s="37"/>
-      <c r="H225" s="37"/>
+      <c r="G225" s="21"/>
+      <c r="H225" s="21"/>
     </row>
     <row r="226" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G226" s="37"/>
-      <c r="H226" s="37"/>
+      <c r="G226" s="21"/>
+      <c r="H226" s="21"/>
     </row>
     <row r="227" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G227" s="37"/>
-      <c r="H227" s="37"/>
+      <c r="G227" s="21"/>
+      <c r="H227" s="21"/>
     </row>
     <row r="228" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G228" s="37"/>
-      <c r="H228" s="37"/>
+      <c r="G228" s="21"/>
+      <c r="H228" s="21"/>
     </row>
     <row r="229" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G229" s="37"/>
-      <c r="H229" s="37"/>
+      <c r="G229" s="21"/>
+      <c r="H229" s="21"/>
     </row>
     <row r="230" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G230" s="37"/>
-      <c r="H230" s="37"/>
+      <c r="G230" s="21"/>
+      <c r="H230" s="21"/>
     </row>
     <row r="231" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G231" s="37"/>
-      <c r="H231" s="37"/>
+      <c r="G231" s="21"/>
+      <c r="H231" s="21"/>
     </row>
     <row r="232" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G232" s="37"/>
-      <c r="H232" s="37"/>
+      <c r="G232" s="21"/>
+      <c r="H232" s="21"/>
     </row>
     <row r="233" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G233" s="37"/>
-      <c r="H233" s="37"/>
+      <c r="G233" s="21"/>
+      <c r="H233" s="21"/>
     </row>
     <row r="234" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G234" s="37"/>
-      <c r="H234" s="37"/>
+      <c r="G234" s="21"/>
+      <c r="H234" s="21"/>
     </row>
     <row r="235" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G235" s="37"/>
-      <c r="H235" s="37"/>
+      <c r="G235" s="21"/>
+      <c r="H235" s="21"/>
     </row>
     <row r="236" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G236" s="37"/>
-      <c r="H236" s="37"/>
+      <c r="G236" s="21"/>
+      <c r="H236" s="21"/>
     </row>
     <row r="237" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G237" s="37"/>
-      <c r="H237" s="37"/>
+      <c r="G237" s="21"/>
+      <c r="H237" s="21"/>
     </row>
     <row r="238" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G238" s="37"/>
-      <c r="H238" s="37"/>
+      <c r="G238" s="21"/>
+      <c r="H238" s="21"/>
     </row>
     <row r="239" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G239" s="37"/>
-      <c r="H239" s="37"/>
+      <c r="G239" s="21"/>
+      <c r="H239" s="21"/>
     </row>
     <row r="240" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G240" s="37"/>
-      <c r="H240" s="37"/>
+      <c r="G240" s="21"/>
+      <c r="H240" s="21"/>
     </row>
     <row r="241" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G241" s="37"/>
-      <c r="H241" s="37"/>
+      <c r="G241" s="21"/>
+      <c r="H241" s="21"/>
     </row>
     <row r="242" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G242" s="37"/>
-      <c r="H242" s="37"/>
+      <c r="G242" s="21"/>
+      <c r="H242" s="21"/>
     </row>
     <row r="243" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G243" s="37"/>
-      <c r="H243" s="37"/>
+      <c r="G243" s="21"/>
+      <c r="H243" s="21"/>
     </row>
     <row r="244" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G244" s="37"/>
-      <c r="H244" s="37"/>
+      <c r="G244" s="21"/>
+      <c r="H244" s="21"/>
     </row>
     <row r="245" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G245" s="37"/>
-      <c r="H245" s="37"/>
+      <c r="G245" s="21"/>
+      <c r="H245" s="21"/>
     </row>
     <row r="246" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G246" s="37"/>
-      <c r="H246" s="37"/>
+      <c r="G246" s="21"/>
+      <c r="H246" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="395">
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="B12:B23"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="A12:A23"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:Q37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:Q38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:Q39"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I48:Q48"/>
+    <mergeCell ref="I49:Q49"/>
+    <mergeCell ref="I50:Q50"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="I29:Q29"/>
+    <mergeCell ref="I41:Q41"/>
+    <mergeCell ref="I42:Q42"/>
+    <mergeCell ref="I43:Q43"/>
+    <mergeCell ref="I44:Q44"/>
+    <mergeCell ref="I45:Q45"/>
+    <mergeCell ref="I46:Q46"/>
+    <mergeCell ref="I47:Q47"/>
+    <mergeCell ref="I40:Q40"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="W59:AE59"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="I22:Q22"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="I31:Q31"/>
+    <mergeCell ref="I32:Q32"/>
+    <mergeCell ref="I33:Q33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I34:Q34"/>
+    <mergeCell ref="I35:Q35"/>
+    <mergeCell ref="I36:Q36"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="I9:Q9"/>
+    <mergeCell ref="I12:Q12"/>
+    <mergeCell ref="I13:Q13"/>
+    <mergeCell ref="I20:Q20"/>
+    <mergeCell ref="I21:Q21"/>
+    <mergeCell ref="I10:Q10"/>
+    <mergeCell ref="I11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I17:Q17"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="I7:Q7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="I2:Q2"/>
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="I4:Q4"/>
+    <mergeCell ref="I5:Q5"/>
+    <mergeCell ref="I6:Q6"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I23:Q23"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I14:Q14"/>
+    <mergeCell ref="I15:Q15"/>
+    <mergeCell ref="I16:Q16"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="G246:H246"/>
+    <mergeCell ref="G237:H237"/>
+    <mergeCell ref="G238:H238"/>
+    <mergeCell ref="G239:H239"/>
+    <mergeCell ref="G240:H240"/>
+    <mergeCell ref="G241:H241"/>
+    <mergeCell ref="G242:H242"/>
+    <mergeCell ref="G231:H231"/>
+    <mergeCell ref="G232:H232"/>
+    <mergeCell ref="G233:H233"/>
+    <mergeCell ref="G234:H234"/>
+    <mergeCell ref="G235:H235"/>
+    <mergeCell ref="G236:H236"/>
+    <mergeCell ref="G243:H243"/>
+    <mergeCell ref="G244:H244"/>
+    <mergeCell ref="G245:H245"/>
     <mergeCell ref="G225:H225"/>
     <mergeCell ref="G226:H226"/>
     <mergeCell ref="G227:H227"/>
@@ -3404,339 +3789,45 @@
     <mergeCell ref="G216:H216"/>
     <mergeCell ref="G217:H217"/>
     <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G246:H246"/>
-    <mergeCell ref="G237:H237"/>
-    <mergeCell ref="G238:H238"/>
-    <mergeCell ref="G239:H239"/>
-    <mergeCell ref="G240:H240"/>
-    <mergeCell ref="G241:H241"/>
-    <mergeCell ref="G242:H242"/>
-    <mergeCell ref="G231:H231"/>
-    <mergeCell ref="G232:H232"/>
-    <mergeCell ref="G233:H233"/>
-    <mergeCell ref="G234:H234"/>
-    <mergeCell ref="G235:H235"/>
-    <mergeCell ref="G236:H236"/>
-    <mergeCell ref="G243:H243"/>
-    <mergeCell ref="G244:H244"/>
-    <mergeCell ref="G245:H245"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="G210:H210"/>
-    <mergeCell ref="G211:H211"/>
-    <mergeCell ref="G212:H212"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I23:Q23"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I14:Q14"/>
-    <mergeCell ref="I15:Q15"/>
-    <mergeCell ref="I16:Q16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I17:Q17"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="I7:Q7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="I1:Q1"/>
-    <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="I3:Q3"/>
-    <mergeCell ref="I4:Q4"/>
-    <mergeCell ref="I5:Q5"/>
-    <mergeCell ref="I6:Q6"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="I9:Q9"/>
-    <mergeCell ref="I12:Q12"/>
-    <mergeCell ref="I13:Q13"/>
-    <mergeCell ref="I20:Q20"/>
-    <mergeCell ref="I21:Q21"/>
-    <mergeCell ref="I10:Q10"/>
-    <mergeCell ref="I11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="W59:AE59"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="I22:Q22"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="I31:Q31"/>
-    <mergeCell ref="I32:Q32"/>
-    <mergeCell ref="I33:Q33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I34:Q34"/>
-    <mergeCell ref="I35:Q35"/>
-    <mergeCell ref="I36:Q36"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="B12:B23"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="F24:F28"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:Q28"/>
+    <mergeCell ref="R28:S28"/>
     <mergeCell ref="I24:Q24"/>
-    <mergeCell ref="I29:Q29"/>
-    <mergeCell ref="I41:Q41"/>
-    <mergeCell ref="I42:Q42"/>
-    <mergeCell ref="I43:Q43"/>
-    <mergeCell ref="I44:Q44"/>
-    <mergeCell ref="I45:Q45"/>
-    <mergeCell ref="I46:Q46"/>
-    <mergeCell ref="I47:Q47"/>
-    <mergeCell ref="I40:Q40"/>
-    <mergeCell ref="I48:Q48"/>
-    <mergeCell ref="I49:Q49"/>
-    <mergeCell ref="I50:Q50"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:Q37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:Q38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:Q39"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/Requirments/CRS_Travel_Advisor_Web_Application.xlsx
+++ b/Requirments/CRS_Travel_Advisor_Web_Application.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA166C62-0D3F-4743-B8F0-AD846B295C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DEE8A5-EE08-4DFE-B160-C758CCFE1245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="178">
   <si>
     <t>CRS ID</t>
   </si>
@@ -208,9 +208,6 @@
     <t>The system shall allow users to enter their email and password in a login form.</t>
   </si>
   <si>
-    <t>FE_Login</t>
-  </si>
-  <si>
     <t>SRS-Login-02</t>
   </si>
   <si>
@@ -551,7 +548,55 @@
     <t>confirmPassword();</t>
   </si>
   <si>
-    <t>FE_Home</t>
+    <t>TC-Login-01</t>
+  </si>
+  <si>
+    <t>TC-Login-02</t>
+  </si>
+  <si>
+    <t>TC-Login-03</t>
+  </si>
+  <si>
+    <t>TC-Login-11</t>
+  </si>
+  <si>
+    <t>TC-Login-07</t>
+  </si>
+  <si>
+    <t>TC-Login-16</t>
+  </si>
+  <si>
+    <t>TC-Login-05</t>
+  </si>
+  <si>
+    <t>TC-Login-08</t>
+  </si>
+  <si>
+    <t>TC-Login-09</t>
+  </si>
+  <si>
+    <t>SRS-Login-08</t>
+  </si>
+  <si>
+    <t>Password should not accept special character</t>
+  </si>
+  <si>
+    <t>Rate_Sequence_Diagram01</t>
+  </si>
+  <si>
+    <t>TC-Rate-01</t>
+  </si>
+  <si>
+    <t>TC-Rate-02</t>
+  </si>
+  <si>
+    <t>TC-Rate-03</t>
+  </si>
+  <si>
+    <t>TC-Rate-04</t>
+  </si>
+  <si>
+    <t>TC-Rate-05 &amp; TC-Rate-06</t>
   </si>
 </sst>
 </file>
@@ -584,7 +629,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1292,25 +1337,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28:S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="125.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" customWidth="1"/>
-    <col min="20" max="20" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="125.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1355,10 +1400,10 @@
         <v>10</v>
       </c>
       <c r="V1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="55.2" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="57" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>11</v>
       </c>
@@ -1393,13 +1438,13 @@
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
       <c r="T2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1424,11 +1469,11 @@
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
       <c r="T3" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U3" s="15"/>
     </row>
-    <row r="4" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -1455,10 +1500,10 @@
       <c r="T4" s="14"/>
       <c r="U4" s="15"/>
       <c r="V4" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="55.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -1483,14 +1528,14 @@
       <c r="R5" s="19"/>
       <c r="S5" s="19"/>
       <c r="T5" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U5" s="15"/>
       <c r="V5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -1519,7 +1564,7 @@
       </c>
       <c r="U6" s="15"/>
     </row>
-    <row r="7" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>27</v>
       </c>
@@ -1556,14 +1601,14 @@
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
       <c r="T7" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U7" s="15"/>
       <c r="V7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="37"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -1588,14 +1633,14 @@
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U8" s="15"/>
       <c r="V8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>36</v>
       </c>
@@ -1630,14 +1675,14 @@
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U9" s="15"/>
       <c r="V9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -1662,14 +1707,14 @@
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U10" s="15"/>
       <c r="V10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -1694,14 +1739,14 @@
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
       <c r="T11" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U11" s="15"/>
       <c r="V11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>46</v>
       </c>
@@ -1733,16 +1778,21 @@
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
+      <c r="R12" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="S12" s="22"/>
       <c r="T12" t="s">
+        <v>144</v>
+      </c>
+      <c r="U12" t="s">
         <v>145</v>
       </c>
-      <c r="U12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1750,11 +1800,11 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
@@ -1764,16 +1814,21 @@
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
+      <c r="R13" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="S13" s="22"/>
       <c r="T13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="V13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1781,11 +1836,11 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
@@ -1795,16 +1850,21 @@
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
+      <c r="R14" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="S14" s="22"/>
       <c r="T14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="V14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1812,11 +1872,11 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -1826,16 +1886,21 @@
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
+      <c r="R15" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="S15" s="22"/>
       <c r="T15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="V15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -1843,11 +1908,11 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
@@ -1857,16 +1922,21 @@
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
+      <c r="R16" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="S16" s="22"/>
       <c r="T16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="V16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1874,11 +1944,11 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -1888,16 +1958,21 @@
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
+      <c r="R17" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="S17" s="22"/>
       <c r="T17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="V17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1905,11 +1980,11 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -1919,25 +1994,34 @@
       <c r="O18" s="19"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
+      <c r="R18" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="S18" s="22"/>
       <c r="T18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="V18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="32"/>
+      <c r="G19" s="32" t="s">
+        <v>170</v>
+      </c>
       <c r="H19" s="32"/>
-      <c r="I19" s="19"/>
+      <c r="I19" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="19"/>
@@ -1946,10 +2030,21 @@
       <c r="O19" s="19"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-    </row>
-    <row r="20" spans="1:21" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R19" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="S19" s="22"/>
+      <c r="T19" t="s">
+        <v>143</v>
+      </c>
+      <c r="U19" t="s">
+        <v>145</v>
+      </c>
+      <c r="V19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -1957,11 +2052,11 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="32"/>
       <c r="I20" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
@@ -1971,16 +2066,21 @@
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
+      <c r="R20" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="S20" s="22"/>
       <c r="T20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="V20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -1988,11 +2088,11 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" s="32"/>
       <c r="I21" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
@@ -2002,16 +2102,21 @@
       <c r="O21" s="19"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
+      <c r="R21" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="S21" s="22"/>
       <c r="T21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="V21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -2019,11 +2124,11 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" s="32"/>
       <c r="I22" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
@@ -2033,16 +2138,21 @@
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
+      <c r="R22" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="S22" s="22"/>
       <c r="T22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="V22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -2050,11 +2160,11 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H23" s="32"/>
       <c r="I23" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -2064,38 +2174,43 @@
       <c r="O23" s="19"/>
       <c r="P23" s="19"/>
       <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
+      <c r="R23" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="S23" s="22"/>
       <c r="T23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="V23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="C24" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="D24" s="48" t="s">
         <v>74</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>75</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="48"/>
       <c r="G24" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J24" s="44"/>
       <c r="K24" s="44"/>
@@ -2105,13 +2220,18 @@
       <c r="O24" s="44"/>
       <c r="P24" s="44"/>
       <c r="Q24" s="22"/>
-      <c r="R24" s="19"/>
+      <c r="R24" s="19" t="s">
+        <v>173</v>
+      </c>
       <c r="S24" s="19"/>
+      <c r="T24" t="s">
+        <v>172</v>
+      </c>
       <c r="U24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
@@ -2119,11 +2239,11 @@
       <c r="E25" s="49"/>
       <c r="F25" s="49"/>
       <c r="G25" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J25" s="44"/>
       <c r="K25" s="44"/>
@@ -2133,13 +2253,18 @@
       <c r="O25" s="44"/>
       <c r="P25" s="44"/>
       <c r="Q25" s="22"/>
-      <c r="R25" s="19"/>
+      <c r="R25" s="19" t="s">
+        <v>174</v>
+      </c>
       <c r="S25" s="19"/>
+      <c r="T25" t="s">
+        <v>172</v>
+      </c>
       <c r="U25" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
@@ -2147,11 +2272,11 @@
       <c r="E26" s="49"/>
       <c r="F26" s="49"/>
       <c r="G26" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J26" s="44"/>
       <c r="K26" s="44"/>
@@ -2161,13 +2286,18 @@
       <c r="O26" s="44"/>
       <c r="P26" s="44"/>
       <c r="Q26" s="22"/>
-      <c r="R26" s="19"/>
+      <c r="R26" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="S26" s="19"/>
+      <c r="T26" t="s">
+        <v>172</v>
+      </c>
       <c r="U26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
@@ -2175,11 +2305,11 @@
       <c r="E27" s="49"/>
       <c r="F27" s="49"/>
       <c r="G27" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J27" s="44"/>
       <c r="K27" s="44"/>
@@ -2189,13 +2319,18 @@
       <c r="O27" s="44"/>
       <c r="P27" s="44"/>
       <c r="Q27" s="22"/>
-      <c r="R27" s="19"/>
+      <c r="R27" s="19" t="s">
+        <v>176</v>
+      </c>
       <c r="S27" s="19"/>
+      <c r="T27" t="s">
+        <v>172</v>
+      </c>
       <c r="U27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="50"/>
       <c r="C28" s="50"/>
@@ -2203,11 +2338,11 @@
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J28" s="44"/>
       <c r="K28" s="44"/>
@@ -2217,35 +2352,40 @@
       <c r="O28" s="44"/>
       <c r="P28" s="44"/>
       <c r="Q28" s="22"/>
-      <c r="R28" s="19"/>
+      <c r="R28" s="19" t="s">
+        <v>177</v>
+      </c>
       <c r="S28" s="19"/>
+      <c r="T28" t="s">
+        <v>172</v>
+      </c>
       <c r="U28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
@@ -2256,36 +2396,36 @@
       <c r="P29" s="28"/>
       <c r="Q29" s="29"/>
       <c r="R29" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S29" s="19"/>
       <c r="U29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="B30" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="C30" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="D30" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H30" s="33"/>
       <c r="I30" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
@@ -2297,11 +2437,8 @@
       <c r="Q30" s="19"/>
       <c r="R30" s="22"/>
       <c r="S30" s="19"/>
-      <c r="U30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -2309,11 +2446,11 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H31" s="34"/>
       <c r="I31" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
@@ -2325,11 +2462,8 @@
       <c r="Q31" s="19"/>
       <c r="R31" s="22"/>
       <c r="S31" s="19"/>
-      <c r="U31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:22" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -2337,11 +2471,11 @@
       <c r="E32" s="19"/>
       <c r="F32" s="20"/>
       <c r="G32" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
@@ -2353,11 +2487,8 @@
       <c r="Q32" s="19"/>
       <c r="R32" s="22"/>
       <c r="S32" s="19"/>
-      <c r="U32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -2365,11 +2496,11 @@
       <c r="E33" s="19"/>
       <c r="F33" s="20"/>
       <c r="G33" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
@@ -2381,11 +2512,8 @@
       <c r="Q33" s="19"/>
       <c r="R33" s="22"/>
       <c r="S33" s="19"/>
-      <c r="U33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -2393,11 +2521,11 @@
       <c r="E34" s="19"/>
       <c r="F34" s="20"/>
       <c r="G34" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
@@ -2409,33 +2537,30 @@
       <c r="Q34" s="19"/>
       <c r="R34" s="22"/>
       <c r="S34" s="19"/>
-      <c r="U34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="C35" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="D35" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>112</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
@@ -2448,7 +2573,7 @@
       <c r="R35" s="22"/>
       <c r="S35" s="19"/>
     </row>
-    <row r="36" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -2456,11 +2581,11 @@
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
       <c r="G36" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
@@ -2473,7 +2598,7 @@
       <c r="R36" s="22"/>
       <c r="S36" s="19"/>
     </row>
-    <row r="37" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -2481,11 +2606,11 @@
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
       <c r="G37" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
@@ -2498,7 +2623,7 @@
       <c r="R37" s="22"/>
       <c r="S37" s="19"/>
     </row>
-    <row r="38" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -2506,11 +2631,11 @@
       <c r="E38" s="19"/>
       <c r="F38" s="20"/>
       <c r="G38" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
@@ -2523,7 +2648,7 @@
       <c r="R38" s="22"/>
       <c r="S38" s="19"/>
     </row>
-    <row r="39" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -2531,11 +2656,11 @@
       <c r="E39" s="19"/>
       <c r="F39" s="20"/>
       <c r="G39" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
@@ -2548,15 +2673,15 @@
       <c r="R39" s="22"/>
       <c r="S39" s="19"/>
     </row>
-    <row r="40" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
@@ -2564,11 +2689,11 @@
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
@@ -2581,15 +2706,15 @@
       <c r="R40" s="22"/>
       <c r="S40" s="19"/>
     </row>
-    <row r="41" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
@@ -2597,11 +2722,11 @@
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H41" s="40"/>
       <c r="I41" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
@@ -2614,29 +2739,29 @@
       <c r="R41" s="22"/>
       <c r="S41" s="19"/>
     </row>
-    <row r="42" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="C42" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="D42" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>136</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H42" s="41"/>
       <c r="I42" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
@@ -2649,13 +2774,13 @@
       <c r="R42" s="20"/>
       <c r="S42" s="22"/>
       <c r="T42" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="U42" t="s">
         <v>139</v>
       </c>
-      <c r="U42" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -2677,7 +2802,7 @@
       <c r="S43" s="22"/>
       <c r="T43" s="11"/>
     </row>
-    <row r="44" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -2699,7 +2824,7 @@
       <c r="S44" s="22"/>
       <c r="T44" s="11"/>
     </row>
-    <row r="45" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -2721,10 +2846,10 @@
       <c r="S45" s="22"/>
       <c r="T45" s="11"/>
     </row>
-    <row r="46" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2744,7 +2869,7 @@
       <c r="R46" s="22"/>
       <c r="S46" s="19"/>
     </row>
-    <row r="47" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2765,7 +2890,7 @@
       <c r="R47" s="22"/>
       <c r="S47" s="19"/>
     </row>
-    <row r="48" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2786,7 +2911,7 @@
       <c r="R48" s="22"/>
       <c r="S48" s="19"/>
     </row>
-    <row r="49" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2807,7 +2932,7 @@
       <c r="R49" s="19"/>
       <c r="S49" s="19"/>
     </row>
-    <row r="50" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2828,39 +2953,39 @@
       <c r="R50" s="19"/>
       <c r="S50" s="19"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G51" s="43"/>
       <c r="H51" s="43"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G52" s="43"/>
       <c r="H52" s="43"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G53" s="43"/>
       <c r="H53" s="43"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G54" s="43"/>
       <c r="H54" s="43"/>
     </row>
-    <row r="55" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G55" s="43"/>
       <c r="H55" s="43"/>
     </row>
-    <row r="56" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G56" s="43"/>
       <c r="H56" s="43"/>
     </row>
-    <row r="57" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G57" s="43"/>
       <c r="H57" s="43"/>
     </row>
-    <row r="58" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G58" s="43"/>
       <c r="H58" s="43"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="G59" s="43"/>
       <c r="H59" s="43"/>
       <c r="W59" s="30"/>
@@ -2873,751 +2998,751 @@
       <c r="AD59" s="31"/>
       <c r="AE59" s="31"/>
     </row>
-    <row r="60" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G60" s="43"/>
       <c r="H60" s="43"/>
     </row>
-    <row r="61" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G61" s="43"/>
       <c r="H61" s="43"/>
     </row>
-    <row r="62" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G62" s="43"/>
       <c r="H62" s="43"/>
     </row>
-    <row r="63" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G63" s="43"/>
       <c r="H63" s="43"/>
     </row>
-    <row r="64" spans="1:31" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G64" s="43"/>
       <c r="H64" s="43"/>
     </row>
-    <row r="65" spans="7:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G65" s="43"/>
       <c r="H65" s="43"/>
     </row>
-    <row r="66" spans="7:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G66" s="43"/>
       <c r="H66" s="43"/>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G67" s="43"/>
       <c r="H67" s="43"/>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G68" s="43"/>
       <c r="H68" s="43"/>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G69" s="43"/>
       <c r="H69" s="43"/>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G70" s="43"/>
       <c r="H70" s="43"/>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G71" s="43"/>
       <c r="H71" s="43"/>
     </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G72" s="43"/>
       <c r="H72" s="43"/>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G73" s="43"/>
       <c r="H73" s="43"/>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G74" s="43"/>
       <c r="H74" s="43"/>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G75" s="43"/>
       <c r="H75" s="43"/>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G76" s="43"/>
       <c r="H76" s="43"/>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G77" s="43"/>
       <c r="H77" s="43"/>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G78" s="43"/>
       <c r="H78" s="43"/>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G79" s="43"/>
       <c r="H79" s="43"/>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G80" s="43"/>
       <c r="H80" s="43"/>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G81" s="43"/>
       <c r="H81" s="43"/>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G82" s="43"/>
       <c r="H82" s="43"/>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G83" s="43"/>
       <c r="H83" s="43"/>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G84" s="43"/>
       <c r="H84" s="43"/>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G85" s="43"/>
       <c r="H85" s="43"/>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G86" s="43"/>
       <c r="H86" s="43"/>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G87" s="43"/>
       <c r="H87" s="43"/>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G88" s="43"/>
       <c r="H88" s="43"/>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G89" s="43"/>
       <c r="H89" s="43"/>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G90" s="43"/>
       <c r="H90" s="43"/>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G91" s="43"/>
       <c r="H91" s="43"/>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G92" s="43"/>
       <c r="H92" s="43"/>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G93" s="43"/>
       <c r="H93" s="43"/>
     </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G94" s="43"/>
       <c r="H94" s="43"/>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G95" s="43"/>
       <c r="H95" s="43"/>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G96" s="43"/>
       <c r="H96" s="43"/>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G97" s="43"/>
       <c r="H97" s="43"/>
     </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G98" s="43"/>
       <c r="H98" s="43"/>
     </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G99" s="43"/>
       <c r="H99" s="43"/>
     </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G100" s="43"/>
       <c r="H100" s="43"/>
     </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G101" s="43"/>
       <c r="H101" s="43"/>
     </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G102" s="43"/>
       <c r="H102" s="43"/>
     </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G103" s="43"/>
       <c r="H103" s="43"/>
     </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G104" s="43"/>
       <c r="H104" s="43"/>
     </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G105" s="43"/>
       <c r="H105" s="43"/>
     </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G106" s="43"/>
       <c r="H106" s="43"/>
     </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G107" s="43"/>
       <c r="H107" s="43"/>
     </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G108" s="43"/>
       <c r="H108" s="43"/>
     </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G109" s="43"/>
       <c r="H109" s="43"/>
     </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G110" s="43"/>
       <c r="H110" s="43"/>
     </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G111" s="43"/>
       <c r="H111" s="43"/>
     </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G112" s="43"/>
       <c r="H112" s="43"/>
     </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G113" s="43"/>
       <c r="H113" s="43"/>
     </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G114" s="43"/>
       <c r="H114" s="43"/>
     </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G115" s="43"/>
       <c r="H115" s="43"/>
     </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G116" s="43"/>
       <c r="H116" s="43"/>
     </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G117" s="43"/>
       <c r="H117" s="43"/>
     </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G118" s="43"/>
       <c r="H118" s="43"/>
     </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G119" s="43"/>
       <c r="H119" s="43"/>
     </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G120" s="43"/>
       <c r="H120" s="43"/>
     </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G121" s="43"/>
       <c r="H121" s="43"/>
     </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G122" s="43"/>
       <c r="H122" s="43"/>
     </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G123" s="43"/>
       <c r="H123" s="43"/>
     </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G124" s="43"/>
       <c r="H124" s="43"/>
     </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G125" s="43"/>
       <c r="H125" s="43"/>
     </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G126" s="43"/>
       <c r="H126" s="43"/>
     </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G127" s="43"/>
       <c r="H127" s="43"/>
     </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G128" s="43"/>
       <c r="H128" s="43"/>
     </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G129" s="43"/>
       <c r="H129" s="43"/>
     </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G130" s="43"/>
       <c r="H130" s="43"/>
     </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G131" s="43"/>
       <c r="H131" s="43"/>
     </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G132" s="43"/>
       <c r="H132" s="43"/>
     </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G133" s="43"/>
       <c r="H133" s="43"/>
     </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G134" s="43"/>
       <c r="H134" s="43"/>
     </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G135" s="43"/>
       <c r="H135" s="43"/>
     </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G136" s="43"/>
       <c r="H136" s="43"/>
     </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G137" s="43"/>
       <c r="H137" s="43"/>
     </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G138" s="43"/>
       <c r="H138" s="43"/>
     </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G139" s="43"/>
       <c r="H139" s="43"/>
     </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G140" s="43"/>
       <c r="H140" s="43"/>
     </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G141" s="43"/>
       <c r="H141" s="43"/>
     </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G142" s="43"/>
       <c r="H142" s="43"/>
     </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G143" s="43"/>
       <c r="H143" s="43"/>
     </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G144" s="43"/>
       <c r="H144" s="43"/>
     </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G145" s="43"/>
       <c r="H145" s="43"/>
     </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G146" s="43"/>
       <c r="H146" s="43"/>
     </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G147" s="43"/>
       <c r="H147" s="43"/>
     </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G148" s="43"/>
       <c r="H148" s="43"/>
     </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G149" s="43"/>
       <c r="H149" s="43"/>
     </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G150" s="43"/>
       <c r="H150" s="43"/>
     </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G151" s="43"/>
       <c r="H151" s="43"/>
     </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G152" s="43"/>
       <c r="H152" s="43"/>
     </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G153" s="43"/>
       <c r="H153" s="43"/>
     </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G154" s="43"/>
       <c r="H154" s="43"/>
     </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G155" s="43"/>
       <c r="H155" s="43"/>
     </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G156" s="43"/>
       <c r="H156" s="43"/>
     </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G157" s="43"/>
       <c r="H157" s="43"/>
     </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G158" s="43"/>
       <c r="H158" s="43"/>
     </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G159" s="43"/>
       <c r="H159" s="43"/>
     </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G160" s="43"/>
       <c r="H160" s="43"/>
     </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G161" s="43"/>
       <c r="H161" s="43"/>
     </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G162" s="43"/>
       <c r="H162" s="43"/>
     </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G163" s="43"/>
       <c r="H163" s="43"/>
     </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G164" s="43"/>
       <c r="H164" s="43"/>
     </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G165" s="43"/>
       <c r="H165" s="43"/>
     </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G166" s="43"/>
       <c r="H166" s="43"/>
     </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G167" s="43"/>
       <c r="H167" s="43"/>
     </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G168" s="43"/>
       <c r="H168" s="43"/>
     </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G169" s="43"/>
       <c r="H169" s="43"/>
     </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G170" s="43"/>
       <c r="H170" s="43"/>
     </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G171" s="43"/>
       <c r="H171" s="43"/>
     </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G172" s="43"/>
       <c r="H172" s="43"/>
     </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G173" s="43"/>
       <c r="H173" s="43"/>
     </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G174" s="43"/>
       <c r="H174" s="43"/>
     </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G175" s="43"/>
       <c r="H175" s="43"/>
     </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G176" s="43"/>
       <c r="H176" s="43"/>
     </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G177" s="43"/>
       <c r="H177" s="43"/>
     </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G178" s="43"/>
       <c r="H178" s="43"/>
     </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G179" s="43"/>
       <c r="H179" s="43"/>
     </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G180" s="43"/>
       <c r="H180" s="43"/>
     </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G181" s="43"/>
       <c r="H181" s="43"/>
     </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G182" s="43"/>
       <c r="H182" s="43"/>
     </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G183" s="43"/>
       <c r="H183" s="43"/>
     </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G184" s="43"/>
       <c r="H184" s="43"/>
     </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G185" s="43"/>
       <c r="H185" s="43"/>
     </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G186" s="43"/>
       <c r="H186" s="43"/>
     </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G187" s="43"/>
       <c r="H187" s="43"/>
     </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G188" s="43"/>
       <c r="H188" s="43"/>
     </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G189" s="43"/>
       <c r="H189" s="43"/>
     </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G190" s="43"/>
       <c r="H190" s="43"/>
     </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G191" s="43"/>
       <c r="H191" s="43"/>
     </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G192" s="43"/>
       <c r="H192" s="43"/>
     </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G193" s="43"/>
       <c r="H193" s="43"/>
     </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G194" s="43"/>
       <c r="H194" s="43"/>
     </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G195" s="43"/>
       <c r="H195" s="43"/>
     </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G196" s="43"/>
       <c r="H196" s="43"/>
     </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G197" s="43"/>
       <c r="H197" s="43"/>
     </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G198" s="43"/>
       <c r="H198" s="43"/>
     </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G199" s="43"/>
       <c r="H199" s="43"/>
     </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G200" s="43"/>
       <c r="H200" s="43"/>
     </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G201" s="43"/>
       <c r="H201" s="43"/>
     </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G202" s="43"/>
       <c r="H202" s="43"/>
     </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G203" s="43"/>
       <c r="H203" s="43"/>
     </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G204" s="43"/>
       <c r="H204" s="43"/>
     </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G205" s="43"/>
       <c r="H205" s="43"/>
     </row>
-    <row r="206" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G206" s="43"/>
       <c r="H206" s="43"/>
     </row>
-    <row r="207" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G207" s="43"/>
       <c r="H207" s="43"/>
     </row>
-    <row r="208" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G208" s="43"/>
       <c r="H208" s="43"/>
     </row>
-    <row r="209" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G209" s="43"/>
       <c r="H209" s="43"/>
     </row>
-    <row r="210" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G210" s="43"/>
       <c r="H210" s="43"/>
     </row>
-    <row r="211" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G211" s="43"/>
       <c r="H211" s="43"/>
     </row>
-    <row r="212" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G212" s="43"/>
       <c r="H212" s="43"/>
     </row>
-    <row r="213" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G213" s="43"/>
       <c r="H213" s="43"/>
     </row>
-    <row r="214" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G214" s="43"/>
       <c r="H214" s="43"/>
     </row>
-    <row r="215" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G215" s="43"/>
       <c r="H215" s="43"/>
     </row>
-    <row r="216" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G216" s="43"/>
       <c r="H216" s="43"/>
     </row>
-    <row r="217" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G217" s="43"/>
       <c r="H217" s="43"/>
     </row>
-    <row r="218" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G218" s="43"/>
       <c r="H218" s="43"/>
     </row>
-    <row r="219" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G219" s="43"/>
       <c r="H219" s="43"/>
     </row>
-    <row r="220" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G220" s="43"/>
       <c r="H220" s="43"/>
     </row>
-    <row r="221" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G221" s="43"/>
       <c r="H221" s="43"/>
     </row>
-    <row r="222" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G222" s="43"/>
       <c r="H222" s="43"/>
     </row>
-    <row r="223" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G223" s="43"/>
       <c r="H223" s="43"/>
     </row>
-    <row r="224" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G224" s="43"/>
       <c r="H224" s="43"/>
     </row>
-    <row r="225" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G225" s="43"/>
       <c r="H225" s="43"/>
     </row>
-    <row r="226" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G226" s="43"/>
       <c r="H226" s="43"/>
     </row>
-    <row r="227" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G227" s="43"/>
       <c r="H227" s="43"/>
     </row>
-    <row r="228" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G228" s="43"/>
       <c r="H228" s="43"/>
     </row>
-    <row r="229" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G229" s="43"/>
       <c r="H229" s="43"/>
     </row>
-    <row r="230" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G230" s="43"/>
       <c r="H230" s="43"/>
     </row>
-    <row r="231" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G231" s="43"/>
       <c r="H231" s="43"/>
     </row>
-    <row r="232" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G232" s="43"/>
       <c r="H232" s="43"/>
     </row>
-    <row r="233" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G233" s="43"/>
       <c r="H233" s="43"/>
     </row>
-    <row r="234" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G234" s="43"/>
       <c r="H234" s="43"/>
     </row>
-    <row r="235" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G235" s="43"/>
       <c r="H235" s="43"/>
     </row>
-    <row r="236" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G236" s="43"/>
       <c r="H236" s="43"/>
     </row>
-    <row r="237" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G237" s="43"/>
       <c r="H237" s="43"/>
     </row>
-    <row r="238" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G238" s="43"/>
       <c r="H238" s="43"/>
     </row>
-    <row r="239" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G239" s="43"/>
       <c r="H239" s="43"/>
     </row>
-    <row r="240" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G240" s="43"/>
       <c r="H240" s="43"/>
     </row>
-    <row r="241" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G241" s="43"/>
       <c r="H241" s="43"/>
     </row>
-    <row r="242" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G242" s="43"/>
       <c r="H242" s="43"/>
     </row>
-    <row r="243" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G243" s="43"/>
       <c r="H243" s="43"/>
     </row>
-    <row r="244" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G244" s="43"/>
       <c r="H244" s="43"/>
     </row>
-    <row r="245" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G245" s="43"/>
       <c r="H245" s="43"/>
     </row>
-    <row r="246" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G246" s="43"/>
       <c r="H246" s="43"/>
     </row>
